--- a/Opcodes.xlsx
+++ b/Opcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newman.c\Source\repos\Z80CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BF5E42-60B5-480B-862A-F2582152424C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74B3B4-7C35-428A-BFE7-9015A3DA45CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{048A5853-C2CF-472B-B65B-479DA1D6E657}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="725">
   <si>
     <t>ADC A,(HL)</t>
   </si>
@@ -2121,6 +2121,96 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>96</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2344,19 +2434,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2677,14 +2773,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2709,8 +2805,8 @@
       <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="13">
-        <v>0</v>
+      <c r="C2" s="18" t="s">
+        <v>695</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -2718,27 +2814,27 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>696</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -2746,13 +2842,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="14">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2760,13 +2856,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
-        <v>5</v>
+      <c r="C6" s="14" t="s">
+        <v>698</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -2774,13 +2870,13 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>568</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
-        <v>7</v>
+      <c r="C7" s="14" t="s">
+        <v>699</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -2788,27 +2884,27 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>568</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>700</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -2816,13 +2912,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>701</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2830,13 +2926,13 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>702</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2844,13 +2940,13 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -2858,13 +2954,13 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2872,13 +2968,13 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>559</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
-        <v>17</v>
+      <c r="C14" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -2886,13 +2982,13 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="14">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -2900,27 +2996,27 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="14">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="D16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>212</v>
+        <v>589</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="14">
-        <v>24</v>
+      <c r="C17" s="13" t="s">
+        <v>590</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -2928,41 +3024,41 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14">
-        <v>25</v>
+        <v>157</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44056</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1">
-        <v>11</v>
-      </c>
-      <c r="C20" s="14">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2970,13 +3066,13 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="14">
-        <v>33</v>
+      <c r="C21" s="13" t="s">
+        <v>704</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -2984,13 +3080,13 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B22" s="1">
-        <v>11</v>
-      </c>
-      <c r="C22" s="14">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>705</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -2998,13 +3094,13 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1">
-        <v>11</v>
-      </c>
-      <c r="C23" s="14">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>706</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -3012,27 +3108,27 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>631</v>
+        <v>355</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="14">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="D24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>559</v>
       </c>
       <c r="B25" s="1">
-        <v>11</v>
-      </c>
-      <c r="C25" s="14">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>707</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -3040,27 +3136,27 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>708</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -3068,13 +3164,13 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="B28" s="1">
         <v>7</v>
       </c>
-      <c r="C28" s="14">
-        <v>66</v>
+      <c r="C28" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
@@ -3082,13 +3178,13 @@
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="D29" s="7">
         <v>1</v>
@@ -3096,13 +3192,13 @@
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B30" s="1">
-        <v>7</v>
-      </c>
-      <c r="C30" s="14">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -3110,13 +3206,13 @@
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>664</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14">
-        <v>96</v>
+        <v>4</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -3124,83 +3220,83 @@
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="B32" s="1">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>335</v>
+        <v>7</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="D32" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>324</v>
+        <v>579</v>
       </c>
       <c r="B33" s="1">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>325</v>
+        <v>4</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="D33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44024</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="D34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="B35" s="1">
-        <v>6</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="D35" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>207</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="D36" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>709</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -3208,27 +3304,27 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="B38" s="1">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>343</v>
+        <v>4</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>710</v>
       </c>
       <c r="D38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>589</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>590</v>
+      <c r="C39" s="13" t="s">
+        <v>711</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -3236,13 +3332,13 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="2">
-        <v>44056</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>386</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="D40" s="7">
         <v>2</v>
@@ -3250,27 +3346,27 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>366</v>
+        <v>4</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>712</v>
       </c>
       <c r="D41" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" s="1">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>356</v>
+        <v>265</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44024</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="D42" s="7">
         <v>2</v>
@@ -3278,41 +3374,41 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>258</v>
+        <v>11</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>713</v>
       </c>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="B44" s="1">
-        <v>7</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>298</v>
+        <v>16</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="D44" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1">
         <v>6</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>137</v>
+      <c r="C45" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -3320,13 +3416,13 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>211</v>
+      <c r="C46" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
@@ -3334,13 +3430,13 @@
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>139</v>
+      <c r="C47" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -3348,13 +3444,13 @@
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="B48" s="1">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>374</v>
+      <c r="C48" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
@@ -3362,13 +3458,13 @@
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>579</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>580</v>
+      <c r="C49" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
@@ -3376,13 +3472,13 @@
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B50" s="2">
         <v>44024</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>264</v>
+      <c r="C50" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="D50" s="7">
         <v>2</v>
@@ -3390,13 +3486,13 @@
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="B51" s="1">
         <v>10</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>393</v>
+      <c r="C51" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D51" s="7">
         <v>3</v>
@@ -3404,13 +3500,13 @@
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B52" s="1">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>288</v>
+        <v>13</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="D52" s="7">
         <v>3</v>
@@ -3418,69 +3514,69 @@
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>386</v>
+        <v>224</v>
       </c>
       <c r="B53" s="1">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>387</v>
+        <v>6</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>714</v>
       </c>
       <c r="D53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B54" s="2">
-        <v>44024</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>266</v>
+        <v>197</v>
+      </c>
+      <c r="B54" s="1">
+        <v>11</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>715</v>
       </c>
       <c r="D54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>390</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1">
-        <v>16</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>391</v>
+        <v>11</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>716</v>
       </c>
       <c r="D55" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="B56" s="1">
-        <v>6</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>142</v>
+        <v>10</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>222</v>
+        <v>631</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>223</v>
+      <c r="C57" s="13" t="s">
+        <v>717</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
@@ -3488,97 +3584,97 @@
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>152</v>
+        <v>259</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44024</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="D58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>427</v>
+        <v>11</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>718</v>
       </c>
       <c r="D59" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="B60" s="1">
-        <v>4</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>121</v>
+        <v>13</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="D60" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B61" s="2">
-        <v>44024</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>262</v>
+        <v>153</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>440</v>
+        <v>202</v>
       </c>
       <c r="B62" s="1">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>441</v>
+        <v>4</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D62" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="B63" s="1">
-        <v>13</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>282</v>
+        <v>4</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="D63" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="B64" s="1">
-        <v>10</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>270</v>
+        <v>7</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="D64" s="7">
         <v>2</v>
@@ -3586,41 +3682,41 @@
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B65" s="2">
-        <v>44024</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>260</v>
+        <v>95</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="D65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B66" s="1">
-        <v>13</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="D66" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="B67" s="1">
-        <v>6</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>154</v>
+        <v>7</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>719</v>
       </c>
       <c r="D67" s="7">
         <v>1</v>
@@ -3628,13 +3724,13 @@
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>203</v>
+      <c r="C68" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="D68" s="7">
         <v>1</v>
@@ -3642,13 +3738,13 @@
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="B69" s="1">
-        <v>4</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>129</v>
+        <v>7</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="D69" s="7">
         <v>1</v>
@@ -3656,27 +3752,27 @@
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="B70" s="1">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>308</v>
+        <v>4</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="D70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="B71" s="1">
-        <v>4</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>720</v>
       </c>
       <c r="D71" s="7">
         <v>1</v>
@@ -3684,13 +3780,13 @@
     </row>
     <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="B72" s="1">
         <v>4</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>327</v>
+      <c r="C72" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="D72" s="7">
         <v>1</v>
@@ -3698,13 +3794,13 @@
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="B73" s="1">
-        <v>4</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>345</v>
+        <v>7</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
@@ -3712,13 +3808,13 @@
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="B74" s="1">
-        <v>7</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>337</v>
+        <v>4</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="D74" s="7">
         <v>1</v>
@@ -3726,13 +3822,13 @@
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B75" s="1">
-        <v>4</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>358</v>
+        <v>7</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>721</v>
       </c>
       <c r="D75" s="7">
         <v>1</v>
@@ -3740,13 +3836,13 @@
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="B76" s="1">
         <v>4</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>376</v>
+      <c r="C76" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="D76" s="7">
         <v>1</v>
@@ -3754,13 +3850,13 @@
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="B77" s="1">
         <v>7</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>368</v>
+      <c r="C77" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
@@ -3768,13 +3864,13 @@
     </row>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="B78" s="1">
-        <v>4</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>389</v>
+        <v>7</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="D78" s="7">
         <v>1</v>
@@ -3782,13 +3878,13 @@
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>428</v>
+        <v>172</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>429</v>
+      <c r="C79" s="13" t="s">
+        <v>722</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -3796,13 +3892,13 @@
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="B80" s="1">
-        <v>7</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>421</v>
+        <v>4</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
@@ -3810,13 +3906,13 @@
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B81" s="1">
         <v>7</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>272</v>
+      <c r="C81" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
@@ -3824,13 +3920,13 @@
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>310</v>
+      <c r="C82" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D82" s="7">
         <v>1</v>
@@ -3838,13 +3934,13 @@
     </row>
     <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="B83" s="1">
         <v>7</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>300</v>
+      <c r="C83" s="13" t="s">
+        <v>723</v>
       </c>
       <c r="D83" s="7">
         <v>1</v>
@@ -3852,13 +3948,13 @@
     </row>
     <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>30</v>
+      <c r="C84" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D84" s="7">
         <v>1</v>
@@ -3866,13 +3962,13 @@
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B85" s="1">
-        <v>4</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="D85" s="7">
         <v>1</v>
@@ -3880,13 +3976,13 @@
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="B86" s="1">
-        <v>7</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>672</v>
       </c>
       <c r="D86" s="7">
         <v>1</v>
@@ -3894,13 +3990,13 @@
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B87" s="1">
-        <v>4</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>672</v>
+        <v>7</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>724</v>
       </c>
       <c r="D87" s="7">
         <v>1</v>
@@ -3913,7 +4009,7 @@
       <c r="B88" s="1">
         <v>4</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="13" t="s">
         <v>618</v>
       </c>
       <c r="D88" s="7">
@@ -3927,7 +4023,7 @@
       <c r="B89" s="1">
         <v>7</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="13" t="s">
         <v>610</v>
       </c>
       <c r="D89" s="7">
@@ -3941,7 +4037,7 @@
       <c r="B90" s="1">
         <v>4</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D90" s="7">
@@ -3955,7 +4051,7 @@
       <c r="B91" s="1">
         <v>7</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D91" s="7">
@@ -3969,7 +4065,7 @@
       <c r="B92" s="1">
         <v>4</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="13" t="s">
         <v>686</v>
       </c>
       <c r="D92" s="7">
@@ -3983,7 +4079,7 @@
       <c r="B93" s="1">
         <v>7</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="13" t="s">
         <v>678</v>
       </c>
       <c r="D93" s="7">
@@ -3997,7 +4093,7 @@
       <c r="B94" s="1">
         <v>4</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="13" t="s">
         <v>468</v>
       </c>
       <c r="D94" s="7">
@@ -4011,7 +4107,7 @@
       <c r="B95" s="1">
         <v>7</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="13" t="s">
         <v>460</v>
       </c>
       <c r="D95" s="7">
@@ -4025,7 +4121,7 @@
       <c r="B96" s="1">
         <v>4</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D96" s="7">
@@ -4039,7 +4135,7 @@
       <c r="B97" s="1">
         <v>7</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="7">
@@ -4053,7 +4149,7 @@
       <c r="B98" s="2">
         <v>43962</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="13" t="s">
         <v>538</v>
       </c>
       <c r="D98" s="7">
@@ -4067,7 +4163,7 @@
       <c r="B99" s="1">
         <v>10</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="13" t="s">
         <v>500</v>
       </c>
       <c r="D99" s="7">
@@ -4081,7 +4177,7 @@
       <c r="B100" s="1">
         <v>10</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="15" t="s">
         <v>248</v>
       </c>
       <c r="D100" s="7">
@@ -4095,7 +4191,7 @@
       <c r="B101" s="1">
         <v>10</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="15" t="s">
         <v>234</v>
       </c>
       <c r="D101" s="7">
@@ -4109,7 +4205,7 @@
       <c r="B102" s="2">
         <v>44121</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D102" s="7">
@@ -4123,7 +4219,7 @@
       <c r="B103" s="1">
         <v>11</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="13" t="s">
         <v>512</v>
       </c>
       <c r="D103" s="7">
@@ -4137,7 +4233,7 @@
       <c r="B104" s="1">
         <v>7</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="7">
@@ -4151,7 +4247,7 @@
       <c r="B105" s="1">
         <v>11</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="13" t="s">
         <v>594</v>
       </c>
       <c r="D105" s="7">
@@ -4165,7 +4261,7 @@
       <c r="B106" s="2">
         <v>43962</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>546</v>
       </c>
       <c r="D106" s="7">
@@ -4179,7 +4275,7 @@
       <c r="B107" s="1">
         <v>10</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>530</v>
       </c>
       <c r="D107" s="7">
@@ -4193,7 +4289,7 @@
       <c r="B108" s="1">
         <v>10</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="15" t="s">
         <v>256</v>
       </c>
       <c r="D108" s="7">
@@ -4207,7 +4303,7 @@
       <c r="B109" s="1">
         <v>8</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="15" t="s">
         <v>567</v>
       </c>
       <c r="D109" s="7">
@@ -4221,7 +4317,7 @@
       <c r="B110" s="1">
         <v>15</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="15" t="s">
         <v>561</v>
       </c>
       <c r="D110" s="7">
@@ -4235,7 +4331,7 @@
       <c r="B111" s="1">
         <v>8</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="15" t="s">
         <v>588</v>
       </c>
       <c r="D111" s="7">
@@ -4249,7 +4345,7 @@
       <c r="B112" s="1">
         <v>15</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="15" t="s">
         <v>582</v>
       </c>
       <c r="D112" s="7">
@@ -4263,7 +4359,7 @@
       <c r="B113" s="1">
         <v>8</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="15" t="s">
         <v>558</v>
       </c>
       <c r="D113" s="7">
@@ -4277,7 +4373,7 @@
       <c r="B114" s="1">
         <v>15</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="15" t="s">
         <v>552</v>
       </c>
       <c r="D114" s="7">
@@ -4291,7 +4387,7 @@
       <c r="B115" s="1">
         <v>8</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="15" t="s">
         <v>578</v>
       </c>
       <c r="D115" s="7">
@@ -4305,7 +4401,7 @@
       <c r="B116" s="1">
         <v>15</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="15" t="s">
         <v>572</v>
       </c>
       <c r="D116" s="7">
@@ -4319,7 +4415,7 @@
       <c r="B117" s="1">
         <v>8</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="15" t="s">
         <v>647</v>
       </c>
       <c r="D117" s="7">
@@ -4333,7 +4429,7 @@
       <c r="B118" s="1">
         <v>15</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="15" t="s">
         <v>641</v>
       </c>
       <c r="D118" s="7">
@@ -4347,7 +4443,7 @@
       <c r="B119" s="1">
         <v>8</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="15" t="s">
         <v>655</v>
       </c>
       <c r="D119" s="7">
@@ -4361,7 +4457,7 @@
       <c r="B120" s="1">
         <v>15</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="15" t="s">
         <v>649</v>
       </c>
       <c r="D120" s="7">
@@ -4375,7 +4471,7 @@
       <c r="B121" s="1">
         <v>8</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="15" t="s">
         <v>663</v>
       </c>
       <c r="D121" s="7">
@@ -4389,7 +4485,7 @@
       <c r="B122" s="1">
         <v>15</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="15" t="s">
         <v>657</v>
       </c>
       <c r="D122" s="7">
@@ -4403,7 +4499,7 @@
       <c r="B123" s="1">
         <v>8</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D123" s="7">
@@ -4417,7 +4513,7 @@
       <c r="B124" s="1">
         <v>12</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D124" s="7">
@@ -4431,7 +4527,7 @@
       <c r="B125" s="1">
         <v>8</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="15" t="s">
         <v>528</v>
       </c>
       <c r="D125" s="7">
@@ -4445,7 +4541,7 @@
       <c r="B126" s="1">
         <v>15</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="15" t="s">
         <v>522</v>
       </c>
       <c r="D126" s="7">
@@ -4459,7 +4555,7 @@
       <c r="B127" s="1">
         <v>8</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="15" t="s">
         <v>639</v>
       </c>
       <c r="D127" s="7">
@@ -4473,7 +4569,7 @@
       <c r="B128" s="1">
         <v>15</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="15" t="s">
         <v>633</v>
       </c>
       <c r="D128" s="7">
@@ -4487,7 +4583,7 @@
       <c r="B129" s="2">
         <v>44121</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D129" s="7">
@@ -4501,7 +4597,7 @@
       <c r="B130" s="1">
         <v>17</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D130" s="7">
@@ -4515,7 +4611,7 @@
       <c r="B131" s="1">
         <v>7</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="7">
@@ -4529,7 +4625,7 @@
       <c r="B132" s="1">
         <v>11</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>596</v>
       </c>
       <c r="D132" s="7">
@@ -4543,7 +4639,7 @@
       <c r="B133" s="2">
         <v>43962</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>536</v>
       </c>
       <c r="D133" s="7">
@@ -4557,7 +4653,7 @@
       <c r="B134" s="1">
         <v>10</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="13" t="s">
         <v>502</v>
       </c>
       <c r="D134" s="7">
@@ -4571,7 +4667,7 @@
       <c r="B135" s="1">
         <v>10</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="15" t="s">
         <v>246</v>
       </c>
       <c r="D135" s="7">
@@ -4585,7 +4681,7 @@
       <c r="B136" s="1">
         <v>11</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="15" t="s">
         <v>492</v>
       </c>
       <c r="D136" s="7">
@@ -4599,7 +4695,7 @@
       <c r="B137" s="2">
         <v>44121</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D137" s="7">
@@ -4613,7 +4709,7 @@
       <c r="B138" s="1">
         <v>11</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="13" t="s">
         <v>514</v>
       </c>
       <c r="D138" s="7">
@@ -4627,7 +4723,7 @@
       <c r="B139" s="1">
         <v>7</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="15" t="s">
         <v>670</v>
       </c>
       <c r="D139" s="7">
@@ -4641,7 +4737,7 @@
       <c r="B140" s="1">
         <v>11</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="13" t="s">
         <v>598</v>
       </c>
       <c r="D140" s="7">
@@ -4655,7 +4751,7 @@
       <c r="B141" s="2">
         <v>43962</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="13" t="s">
         <v>532</v>
       </c>
       <c r="D141" s="7">
@@ -4669,7 +4765,7 @@
       <c r="B142" s="1">
         <v>4</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="13" t="s">
         <v>171</v>
       </c>
       <c r="D142" s="7">
@@ -4683,7 +4779,7 @@
       <c r="B143" s="1">
         <v>10</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="15" t="s">
         <v>242</v>
       </c>
       <c r="D143" s="7">
@@ -4697,7 +4793,7 @@
       <c r="B144" s="1">
         <v>11</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="15" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="7">
@@ -4711,7 +4807,7 @@
       <c r="B145" s="2">
         <v>44121</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D145" s="7">
@@ -4725,7 +4821,7 @@
       <c r="B146" s="1">
         <v>8</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="15" t="s">
         <v>219</v>
       </c>
       <c r="D146" s="7">
@@ -4739,7 +4835,7 @@
       <c r="B147" s="1">
         <v>8</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="15" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="7">
@@ -4753,7 +4849,7 @@
       <c r="B148" s="1">
         <v>15</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D148" s="7">
@@ -4767,7 +4863,7 @@
       <c r="B149" s="1">
         <v>15</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D149" s="7">
@@ -4781,7 +4877,7 @@
       <c r="B150" s="1">
         <v>14</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="15" t="s">
         <v>399</v>
       </c>
       <c r="D150" s="7">
@@ -4795,7 +4891,7 @@
       <c r="B151" s="1">
         <v>20</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="15" t="s">
         <v>290</v>
       </c>
       <c r="D151" s="7">
@@ -4809,7 +4905,7 @@
       <c r="B152" s="1">
         <v>10</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="15" t="s">
         <v>215</v>
       </c>
       <c r="D152" s="7">
@@ -4823,7 +4919,7 @@
       <c r="B153" s="1">
         <v>11</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D153" s="7">
@@ -4837,7 +4933,7 @@
       <c r="B154" s="1">
         <v>15</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D154" s="7">
@@ -4851,7 +4947,7 @@
       <c r="B155" s="1">
         <v>20</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D155" s="7">
@@ -4865,7 +4961,7 @@
       <c r="B156" s="1">
         <v>10</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="15" t="s">
         <v>144</v>
       </c>
       <c r="D156" s="7">
@@ -4879,7 +4975,7 @@
       <c r="B157" s="1">
         <v>11</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D157" s="7">
@@ -4893,7 +4989,7 @@
       <c r="B158" s="1">
         <v>23</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="15" t="s">
         <v>199</v>
       </c>
       <c r="D158" s="7">
@@ -4907,7 +5003,7 @@
       <c r="B159" s="1">
         <v>23</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D159" s="7">
@@ -4921,7 +5017,7 @@
       <c r="B160" s="1">
         <v>19</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="15" t="s">
         <v>274</v>
       </c>
       <c r="D160" s="7">
@@ -4935,7 +5031,7 @@
       <c r="B161" s="1">
         <v>15</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D161" s="7">
@@ -4949,7 +5045,7 @@
       <c r="B162" s="1">
         <v>8</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="15" t="s">
         <v>329</v>
       </c>
       <c r="D162" s="7">
@@ -4963,7 +5059,7 @@
       <c r="B163" s="1">
         <v>19</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D163" s="7">
@@ -4977,7 +5073,7 @@
       <c r="B164" s="1">
         <v>8</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="15" t="s">
         <v>347</v>
       </c>
       <c r="D164" s="7">
@@ -4991,7 +5087,7 @@
       <c r="B165" s="1">
         <v>19</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="15" t="s">
         <v>339</v>
       </c>
       <c r="D165" s="7">
@@ -5005,7 +5101,7 @@
       <c r="B166" s="1">
         <v>8</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="15" t="s">
         <v>360</v>
       </c>
       <c r="D166" s="7">
@@ -5019,7 +5115,7 @@
       <c r="B167" s="1">
         <v>19</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="15" t="s">
         <v>352</v>
       </c>
       <c r="D167" s="7">
@@ -5033,7 +5129,7 @@
       <c r="B168" s="1">
         <v>8</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="15" t="s">
         <v>378</v>
       </c>
       <c r="D168" s="7">
@@ -5047,7 +5143,7 @@
       <c r="B169" s="1">
         <v>19</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="15" t="s">
         <v>370</v>
       </c>
       <c r="D169" s="7">
@@ -5061,7 +5157,7 @@
       <c r="B170" s="1">
         <v>8</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="7">
@@ -5075,7 +5171,7 @@
       <c r="B171" s="1">
         <v>19</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="15" t="s">
         <v>383</v>
       </c>
       <c r="D171" s="7">
@@ -5089,7 +5185,7 @@
       <c r="B172" s="1">
         <v>8</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D172" s="7">
@@ -5103,7 +5199,7 @@
       <c r="B173" s="1">
         <v>19</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="15" t="s">
         <v>423</v>
       </c>
       <c r="D173" s="7">
@@ -5117,7 +5213,7 @@
       <c r="B174" s="1">
         <v>19</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="15" t="s">
         <v>276</v>
       </c>
       <c r="D174" s="7">
@@ -5131,7 +5227,7 @@
       <c r="B175" s="1">
         <v>8</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="15" t="s">
         <v>312</v>
       </c>
       <c r="D175" s="7">
@@ -5145,7 +5241,7 @@
       <c r="B176" s="1">
         <v>19</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="15" t="s">
         <v>302</v>
       </c>
       <c r="D176" s="7">
@@ -5159,7 +5255,7 @@
       <c r="B177" s="1">
         <v>8</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="7">
@@ -5173,7 +5269,7 @@
       <c r="B178" s="1">
         <v>19</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D178" s="7">
@@ -5187,7 +5283,7 @@
       <c r="B179" s="1">
         <v>8</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="7">
@@ -5201,7 +5297,7 @@
       <c r="B180" s="1">
         <v>19</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="7">
@@ -5215,7 +5311,7 @@
       <c r="B181" s="1">
         <v>8</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="15" t="s">
         <v>674</v>
       </c>
       <c r="D181" s="7">
@@ -5229,7 +5325,7 @@
       <c r="B182" s="1">
         <v>19</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="15" t="s">
         <v>666</v>
       </c>
       <c r="D182" s="7">
@@ -5243,7 +5339,7 @@
       <c r="B183" s="1">
         <v>8</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="15" t="s">
         <v>620</v>
       </c>
       <c r="D183" s="7">
@@ -5257,7 +5353,7 @@
       <c r="B184" s="1">
         <v>19</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="15" t="s">
         <v>612</v>
       </c>
       <c r="D184" s="7">
@@ -5271,7 +5367,7 @@
       <c r="B185" s="1">
         <v>8</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D185" s="7">
@@ -5285,7 +5381,7 @@
       <c r="B186" s="1">
         <v>19</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D186" s="7">
@@ -5299,7 +5395,7 @@
       <c r="B187" s="1">
         <v>8</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="15" t="s">
         <v>688</v>
       </c>
       <c r="D187" s="7">
@@ -5313,7 +5409,7 @@
       <c r="B188" s="1">
         <v>19</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="15" t="s">
         <v>680</v>
       </c>
       <c r="D188" s="7">
@@ -5327,7 +5423,7 @@
       <c r="B189" s="1">
         <v>8</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="15" t="s">
         <v>470</v>
       </c>
       <c r="D189" s="7">
@@ -5341,7 +5437,7 @@
       <c r="B190" s="1">
         <v>19</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="15" t="s">
         <v>462</v>
       </c>
       <c r="D190" s="7">
@@ -5355,7 +5451,7 @@
       <c r="B191" s="1">
         <v>8</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D191" s="7">
@@ -5369,7 +5465,7 @@
       <c r="B192" s="1">
         <v>19</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D192" s="7">
@@ -5383,7 +5479,7 @@
       <c r="B193" s="1">
         <v>23</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="15" t="s">
         <v>563</v>
       </c>
       <c r="D193" s="7">
@@ -5397,7 +5493,7 @@
       <c r="B194" s="1">
         <v>23</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="15" t="s">
         <v>584</v>
       </c>
       <c r="D194" s="7">
@@ -5411,7 +5507,7 @@
       <c r="B195" s="1">
         <v>23</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="15" t="s">
         <v>554</v>
       </c>
       <c r="D195" s="7">
@@ -5425,7 +5521,7 @@
       <c r="B196" s="1">
         <v>23</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D196" s="7">
@@ -5439,7 +5535,7 @@
       <c r="B197" s="1">
         <v>23</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="15" t="s">
         <v>643</v>
       </c>
       <c r="D197" s="7">
@@ -5453,7 +5549,7 @@
       <c r="B198" s="1">
         <v>23</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="15" t="s">
         <v>651</v>
       </c>
       <c r="D198" s="7">
@@ -5467,7 +5563,7 @@
       <c r="B199" s="1">
         <v>23</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="15" t="s">
         <v>659</v>
       </c>
       <c r="D199" s="7">
@@ -5481,7 +5577,7 @@
       <c r="B200" s="1">
         <v>20</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D200" s="7">
@@ -5495,7 +5591,7 @@
       <c r="B201" s="1">
         <v>23</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="15" t="s">
         <v>524</v>
       </c>
       <c r="D201" s="7">
@@ -5509,7 +5605,7 @@
       <c r="B202" s="1">
         <v>23</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="15" t="s">
         <v>635</v>
       </c>
       <c r="D202" s="7">
@@ -5523,7 +5619,7 @@
       <c r="B203" s="1">
         <v>14</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="15" t="s">
         <v>506</v>
       </c>
       <c r="D203" s="7">
@@ -5537,7 +5633,7 @@
       <c r="B204" s="1">
         <v>23</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="15" t="s">
         <v>164</v>
       </c>
       <c r="D204" s="7">
@@ -5551,7 +5647,7 @@
       <c r="B205" s="1">
         <v>15</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="15" t="s">
         <v>518</v>
       </c>
       <c r="D205" s="7">
@@ -5565,7 +5661,7 @@
       <c r="B206" s="1">
         <v>8</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="15" t="s">
         <v>238</v>
       </c>
       <c r="D206" s="7">
@@ -5579,7 +5675,7 @@
       <c r="B207" s="1">
         <v>10</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D207" s="7">
@@ -5593,7 +5689,7 @@
       <c r="B208" s="1">
         <v>7</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="15" t="s">
         <v>616</v>
       </c>
       <c r="D208" s="7">
@@ -5607,7 +5703,7 @@
       <c r="B209" s="1">
         <v>11</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C209" s="13" t="s">
         <v>600</v>
       </c>
       <c r="D209" s="7">
@@ -5621,7 +5717,7 @@
       <c r="B210" s="2">
         <v>43962</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="C210" s="13" t="s">
         <v>544</v>
       </c>
       <c r="D210" s="7">
@@ -5635,7 +5731,7 @@
       <c r="B211" s="1">
         <v>10</v>
       </c>
-      <c r="C211" s="14" t="s">
+      <c r="C211" s="13" t="s">
         <v>504</v>
       </c>
       <c r="D211" s="7">
@@ -5649,7 +5745,7 @@
       <c r="B212" s="1">
         <v>10</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="15" t="s">
         <v>254</v>
       </c>
       <c r="D212" s="7">
@@ -5663,7 +5759,7 @@
       <c r="B213" s="1">
         <v>19</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="C213" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D213" s="7">
@@ -5677,7 +5773,7 @@
       <c r="B214" s="2">
         <v>44121</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D214" s="7">
@@ -5691,7 +5787,7 @@
       <c r="B215" s="1">
         <v>11</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="C215" s="13" t="s">
         <v>516</v>
       </c>
       <c r="D215" s="7">
@@ -5705,7 +5801,7 @@
       <c r="B216" s="1">
         <v>7</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D216" s="7">
@@ -5719,7 +5815,7 @@
       <c r="B217" s="1">
         <v>11</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C217" s="13" t="s">
         <v>602</v>
       </c>
       <c r="D217" s="7">
@@ -5733,7 +5829,7 @@
       <c r="B218" s="2">
         <v>43962</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C218" s="13" t="s">
         <v>542</v>
       </c>
       <c r="D218" s="7">
@@ -5747,7 +5843,7 @@
       <c r="B219" s="1">
         <v>4</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C219" s="13" t="s">
         <v>236</v>
       </c>
       <c r="D219" s="7">
@@ -5761,7 +5857,7 @@
       <c r="B220" s="1">
         <v>10</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="15" t="s">
         <v>252</v>
       </c>
       <c r="D220" s="7">
@@ -5775,7 +5871,7 @@
       <c r="B221" s="1">
         <v>4</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C221" s="13" t="s">
         <v>169</v>
       </c>
       <c r="D221" s="7">
@@ -5789,7 +5885,7 @@
       <c r="B222" s="2">
         <v>44121</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D222" s="7">
@@ -5803,7 +5899,7 @@
       <c r="B223" s="1">
         <v>12</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="15" t="s">
         <v>184</v>
       </c>
       <c r="D223" s="7">
@@ -5817,7 +5913,7 @@
       <c r="B224" s="1">
         <v>12</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="15" t="s">
         <v>480</v>
       </c>
       <c r="D224" s="7">
@@ -5831,7 +5927,7 @@
       <c r="B225" s="1">
         <v>15</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="15" t="s">
         <v>624</v>
       </c>
       <c r="D225" s="7">
@@ -5845,7 +5941,7 @@
       <c r="B226" s="1">
         <v>20</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="15" t="s">
         <v>284</v>
       </c>
       <c r="D226" s="7">
@@ -5859,7 +5955,7 @@
       <c r="B227" s="1">
         <v>8</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="15" t="s">
         <v>457</v>
       </c>
       <c r="D227" s="7">
@@ -5873,7 +5969,7 @@
       <c r="B228" s="1">
         <v>14</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D228" s="7">
@@ -5887,7 +5983,7 @@
       <c r="B229" s="1">
         <v>8</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="15" t="s">
         <v>174</v>
       </c>
       <c r="D229" s="7">
@@ -5901,7 +5997,7 @@
       <c r="B230" s="1">
         <v>9</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="15" t="s">
         <v>395</v>
       </c>
       <c r="D230" s="7">
@@ -5915,7 +6011,7 @@
       <c r="B231" s="1">
         <v>12</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="15" t="s">
         <v>186</v>
       </c>
       <c r="D231" s="7">
@@ -5929,7 +6025,7 @@
       <c r="B232" s="1">
         <v>12</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="15" t="s">
         <v>482</v>
       </c>
       <c r="D232" s="7">
@@ -5943,7 +6039,7 @@
       <c r="B233" s="1">
         <v>15</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D233" s="7">
@@ -5957,7 +6053,7 @@
       <c r="B234" s="1">
         <v>20</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="15" t="s">
         <v>333</v>
       </c>
       <c r="D234" s="7">
@@ -5971,7 +6067,7 @@
       <c r="B235" s="1">
         <v>14</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="15" t="s">
         <v>548</v>
       </c>
       <c r="D235" s="7">
@@ -5985,7 +6081,7 @@
       <c r="B236" s="1">
         <v>9</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D236" s="7">
@@ -5999,7 +6095,7 @@
       <c r="B237" s="1">
         <v>12</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="15" t="s">
         <v>188</v>
       </c>
       <c r="D237" s="7">
@@ -6013,7 +6109,7 @@
       <c r="B238" s="1">
         <v>12</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="15" t="s">
         <v>484</v>
       </c>
       <c r="D238" s="7">
@@ -6027,7 +6123,7 @@
       <c r="B239" s="1">
         <v>15</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="15" t="s">
         <v>626</v>
       </c>
       <c r="D239" s="7">
@@ -6041,7 +6137,7 @@
       <c r="B240" s="1">
         <v>20</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="15" t="s">
         <v>286</v>
       </c>
       <c r="D240" s="7">
@@ -6055,7 +6151,7 @@
       <c r="B241" s="1">
         <v>8</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="15" t="s">
         <v>176</v>
       </c>
       <c r="D241" s="7">
@@ -6069,7 +6165,7 @@
       <c r="B242" s="1">
         <v>9</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="15" t="s">
         <v>316</v>
       </c>
       <c r="D242" s="7">
@@ -6083,7 +6179,7 @@
       <c r="B243" s="1">
         <v>12</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="15" t="s">
         <v>190</v>
       </c>
       <c r="D243" s="7">
@@ -6097,7 +6193,7 @@
       <c r="B244" s="1">
         <v>12</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="15" t="s">
         <v>486</v>
       </c>
       <c r="D244" s="7">
@@ -6111,7 +6207,7 @@
       <c r="B245" s="1">
         <v>15</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D245" s="7">
@@ -6125,7 +6221,7 @@
       <c r="B246" s="1">
         <v>20</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="15" t="s">
         <v>364</v>
       </c>
       <c r="D246" s="7">
@@ -6139,7 +6235,7 @@
       <c r="B247" s="1">
         <v>8</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="15" t="s">
         <v>178</v>
       </c>
       <c r="D247" s="7">
@@ -6153,7 +6249,7 @@
       <c r="B248" s="1">
         <v>9</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="15" t="s">
         <v>318</v>
       </c>
       <c r="D248" s="7">
@@ -6167,7 +6263,7 @@
       <c r="B249" s="1">
         <v>12</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="15" t="s">
         <v>192</v>
       </c>
       <c r="D249" s="7">
@@ -6181,7 +6277,7 @@
       <c r="B250" s="1">
         <v>12</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="15" t="s">
         <v>488</v>
       </c>
       <c r="D250" s="7">
@@ -6195,7 +6291,7 @@
       <c r="B251" s="1">
         <v>15</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="15" t="s">
         <v>628</v>
       </c>
       <c r="D251" s="7">
@@ -6209,7 +6305,7 @@
       <c r="B252" s="1">
         <v>18</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="15" t="s">
         <v>592</v>
       </c>
       <c r="D252" s="7">
@@ -6223,7 +6319,7 @@
       <c r="B253" s="1">
         <v>12</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D253" s="7">
@@ -6237,7 +6333,7 @@
       <c r="B254" s="1">
         <v>12</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="15" t="s">
         <v>490</v>
       </c>
       <c r="D254" s="7">
@@ -6251,7 +6347,7 @@
       <c r="B255" s="1">
         <v>15</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="7">
@@ -6265,7 +6361,7 @@
       <c r="B256" s="1">
         <v>18</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="15" t="s">
         <v>570</v>
       </c>
       <c r="D256" s="7">
@@ -6279,7 +6375,7 @@
       <c r="B257" s="1">
         <v>12</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="15" t="s">
         <v>196</v>
       </c>
       <c r="D257" s="7">
@@ -6293,7 +6389,7 @@
       <c r="B258" s="1">
         <v>15</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="15" t="s">
         <v>630</v>
       </c>
       <c r="D258" s="7">
@@ -6307,7 +6403,7 @@
       <c r="B259" s="1">
         <v>20</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="15" t="s">
         <v>294</v>
       </c>
       <c r="D259" s="7">
@@ -6321,7 +6417,7 @@
       <c r="B260" s="1">
         <v>12</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="15" t="s">
         <v>180</v>
       </c>
       <c r="D260" s="7">
@@ -6335,7 +6431,7 @@
       <c r="B261" s="1">
         <v>12</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="15" t="s">
         <v>478</v>
       </c>
       <c r="D261" s="7">
@@ -6349,7 +6445,7 @@
       <c r="B262" s="1">
         <v>15</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D262" s="7">
@@ -6363,7 +6459,7 @@
       <c r="B263" s="1">
         <v>20</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D263" s="7">
@@ -6377,7 +6473,7 @@
       <c r="B264" s="1">
         <v>16</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="15" t="s">
         <v>447</v>
       </c>
       <c r="D264" s="7">
@@ -6391,7 +6487,7 @@
       <c r="B265" s="1">
         <v>16</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D265" s="7">
@@ -6405,7 +6501,7 @@
       <c r="B266" s="1">
         <v>16</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="15" t="s">
         <v>230</v>
       </c>
       <c r="D266" s="7">
@@ -6419,7 +6515,7 @@
       <c r="B267" s="1">
         <v>16</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D267" s="7">
@@ -6433,7 +6529,7 @@
       <c r="B268" s="1">
         <v>16</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D268" s="7">
@@ -6447,7 +6543,7 @@
       <c r="B269" s="1">
         <v>16</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D269" s="7">
@@ -6461,7 +6557,7 @@
       <c r="B270" s="1">
         <v>16</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D270" s="7">
@@ -6475,7 +6571,7 @@
       <c r="B271" s="1">
         <v>16</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="15" t="s">
         <v>494</v>
       </c>
       <c r="D271" s="7">
@@ -6489,7 +6585,7 @@
       <c r="B272" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D272" s="7">
@@ -6503,7 +6599,7 @@
       <c r="B273" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="15" t="s">
         <v>119</v>
       </c>
       <c r="D273" s="7">
@@ -6517,7 +6613,7 @@
       <c r="B274" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="15" t="s">
         <v>232</v>
       </c>
       <c r="D274" s="7">
@@ -6531,7 +6627,7 @@
       <c r="B275" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="15" t="s">
         <v>476</v>
       </c>
       <c r="D275" s="7">
@@ -6545,7 +6641,7 @@
       <c r="B276" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="15" t="s">
         <v>445</v>
       </c>
       <c r="D276" s="7">
@@ -6559,7 +6655,7 @@
       <c r="B277" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D277" s="7">
@@ -6573,7 +6669,7 @@
       <c r="B278" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="15" t="s">
         <v>228</v>
       </c>
       <c r="D278" s="7">
@@ -6587,7 +6683,7 @@
       <c r="B279" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="15" t="s">
         <v>474</v>
       </c>
       <c r="D279" s="7">
@@ -6599,7 +6695,7 @@
         <v>450</v>
       </c>
       <c r="B280" s="1"/>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="15" t="s">
         <v>451</v>
       </c>
       <c r="D280" s="7">
@@ -6611,7 +6707,7 @@
         <v>452</v>
       </c>
       <c r="B281" s="1"/>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="15" t="s">
         <v>453</v>
       </c>
       <c r="D281" s="7">
@@ -6623,7 +6719,7 @@
         <v>454</v>
       </c>
       <c r="B282" s="1"/>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="15" t="s">
         <v>455</v>
       </c>
       <c r="D282" s="7">
@@ -6637,7 +6733,7 @@
       <c r="B283" s="1">
         <v>7</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="15" t="s">
         <v>684</v>
       </c>
       <c r="D283" s="7">
@@ -6651,7 +6747,7 @@
       <c r="B284" s="1">
         <v>11</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C284" s="13" t="s">
         <v>604</v>
       </c>
       <c r="D284" s="7">
@@ -6665,7 +6761,7 @@
       <c r="B285" s="2">
         <v>43962</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" s="13" t="s">
         <v>540</v>
       </c>
       <c r="D285" s="7">
@@ -6679,7 +6775,7 @@
       <c r="B286" s="1">
         <v>10</v>
       </c>
-      <c r="C286" s="14" t="s">
+      <c r="C286" s="13" t="s">
         <v>498</v>
       </c>
       <c r="D286" s="7">
@@ -6693,7 +6789,7 @@
       <c r="B287" s="1">
         <v>10</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="15" t="s">
         <v>250</v>
       </c>
       <c r="D287" s="7">
@@ -6707,7 +6803,7 @@
       <c r="B288" s="1">
         <v>4</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="C288" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D288" s="7">
@@ -6721,7 +6817,7 @@
       <c r="B289" s="2">
         <v>44121</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D289" s="7">
@@ -6735,7 +6831,7 @@
       <c r="B290" s="1">
         <v>11</v>
       </c>
-      <c r="C290" s="14" t="s">
+      <c r="C290" s="13" t="s">
         <v>510</v>
       </c>
       <c r="D290" s="7">
@@ -6749,7 +6845,7 @@
       <c r="B291" s="1">
         <v>7</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C291" s="15" t="s">
         <v>466</v>
       </c>
       <c r="D291" s="7">
@@ -6763,7 +6859,7 @@
       <c r="B292" s="1">
         <v>11</v>
       </c>
-      <c r="C292" s="14" t="s">
+      <c r="C292" s="13" t="s">
         <v>606</v>
       </c>
       <c r="D292" s="7">
@@ -6777,7 +6873,7 @@
       <c r="B293" s="2">
         <v>43962</v>
       </c>
-      <c r="C293" s="14" t="s">
+      <c r="C293" s="13" t="s">
         <v>534</v>
       </c>
       <c r="D293" s="7">
@@ -6791,7 +6887,7 @@
       <c r="B294" s="1">
         <v>6</v>
       </c>
-      <c r="C294" s="14" t="s">
+      <c r="C294" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D294" s="7">
@@ -6805,7 +6901,7 @@
       <c r="B295" s="1">
         <v>10</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C295" s="15" t="s">
         <v>244</v>
       </c>
       <c r="D295" s="7">
@@ -6819,7 +6915,7 @@
       <c r="B296" s="1">
         <v>4</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D296" s="7">
@@ -6833,7 +6929,7 @@
       <c r="B297" s="2">
         <v>44121</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D297" s="7">
@@ -6847,7 +6943,7 @@
       <c r="B298" s="1">
         <v>8</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="15" t="s">
         <v>221</v>
       </c>
       <c r="D298" s="7">
@@ -6861,7 +6957,7 @@
       <c r="B299" s="1">
         <v>8</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="15" t="s">
         <v>150</v>
       </c>
       <c r="D299" s="7">
@@ -6875,7 +6971,7 @@
       <c r="B300" s="1">
         <v>15</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D300" s="7">
@@ -6889,7 +6985,7 @@
       <c r="B301" s="1">
         <v>15</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D301" s="7">
@@ -6903,7 +6999,7 @@
       <c r="B302" s="1">
         <v>14</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="15" t="s">
         <v>411</v>
       </c>
       <c r="D302" s="7">
@@ -6917,7 +7013,7 @@
       <c r="B303" s="1">
         <v>20</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="15" t="s">
         <v>292</v>
       </c>
       <c r="D303" s="7">
@@ -6931,7 +7027,7 @@
       <c r="B304" s="1">
         <v>10</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="15" t="s">
         <v>217</v>
       </c>
       <c r="D304" s="7">
@@ -6945,7 +7041,7 @@
       <c r="B305" s="1">
         <v>11</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D305" s="7">
@@ -6959,7 +7055,7 @@
       <c r="B306" s="1">
         <v>15</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="C306" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D306" s="7">
@@ -6973,7 +7069,7 @@
       <c r="B307" s="1">
         <v>20</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C307" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D307" s="7">
@@ -6987,7 +7083,7 @@
       <c r="B308" s="1">
         <v>10</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" s="15" t="s">
         <v>146</v>
       </c>
       <c r="D308" s="7">
@@ -7001,7 +7097,7 @@
       <c r="B309" s="1">
         <v>11</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="15" t="s">
         <v>417</v>
       </c>
       <c r="D309" s="7">
@@ -7015,7 +7111,7 @@
       <c r="B310" s="1">
         <v>23</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C310" s="15" t="s">
         <v>201</v>
       </c>
       <c r="D310" s="7">
@@ -7029,7 +7125,7 @@
       <c r="B311" s="1">
         <v>23</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C311" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D311" s="7">
@@ -7043,7 +7139,7 @@
       <c r="B312" s="1">
         <v>19</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="C312" s="15" t="s">
         <v>278</v>
       </c>
       <c r="D312" s="7">
@@ -7057,7 +7153,7 @@
       <c r="B313" s="1">
         <v>15</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="C313" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D313" s="7">
@@ -7071,7 +7167,7 @@
       <c r="B314" s="1">
         <v>8</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C314" s="15" t="s">
         <v>331</v>
       </c>
       <c r="D314" s="7">
@@ -7085,7 +7181,7 @@
       <c r="B315" s="1">
         <v>19</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="15" t="s">
         <v>323</v>
       </c>
       <c r="D315" s="7">
@@ -7099,7 +7195,7 @@
       <c r="B316" s="1">
         <v>8</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="15" t="s">
         <v>349</v>
       </c>
       <c r="D316" s="7">
@@ -7113,7 +7209,7 @@
       <c r="B317" s="1">
         <v>19</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C317" s="15" t="s">
         <v>341</v>
       </c>
       <c r="D317" s="7">
@@ -7127,7 +7223,7 @@
       <c r="B318" s="1">
         <v>8</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="C318" s="15" t="s">
         <v>362</v>
       </c>
       <c r="D318" s="7">
@@ -7141,7 +7237,7 @@
       <c r="B319" s="1">
         <v>19</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C319" s="15" t="s">
         <v>354</v>
       </c>
       <c r="D319" s="7">
@@ -7155,7 +7251,7 @@
       <c r="B320" s="1">
         <v>8</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C320" s="15" t="s">
         <v>380</v>
       </c>
       <c r="D320" s="7">
@@ -7169,7 +7265,7 @@
       <c r="B321" s="1">
         <v>19</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="C321" s="15" t="s">
         <v>372</v>
       </c>
       <c r="D321" s="7">
@@ -7183,7 +7279,7 @@
       <c r="B322" s="1">
         <v>8</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C322" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D322" s="7">
@@ -7197,7 +7293,7 @@
       <c r="B323" s="1">
         <v>19</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="C323" s="15" t="s">
         <v>385</v>
       </c>
       <c r="D323" s="7">
@@ -7211,7 +7307,7 @@
       <c r="B324" s="1">
         <v>8</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="C324" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D324" s="7">
@@ -7225,7 +7321,7 @@
       <c r="B325" s="1">
         <v>19</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C325" s="15" t="s">
         <v>425</v>
       </c>
       <c r="D325" s="7">
@@ -7239,7 +7335,7 @@
       <c r="B326" s="1">
         <v>19</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="C326" s="15" t="s">
         <v>280</v>
       </c>
       <c r="D326" s="7">
@@ -7253,7 +7349,7 @@
       <c r="B327" s="1">
         <v>8</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="C327" s="15" t="s">
         <v>314</v>
       </c>
       <c r="D327" s="7">
@@ -7267,7 +7363,7 @@
       <c r="B328" s="1">
         <v>19</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="C328" s="15" t="s">
         <v>304</v>
       </c>
       <c r="D328" s="7">
@@ -7281,7 +7377,7 @@
       <c r="B329" s="1">
         <v>8</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="C329" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D329" s="7">
@@ -7295,7 +7391,7 @@
       <c r="B330" s="1">
         <v>19</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="C330" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D330" s="7">
@@ -7309,7 +7405,7 @@
       <c r="B331" s="1">
         <v>8</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="C331" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D331" s="7">
@@ -7323,7 +7419,7 @@
       <c r="B332" s="1">
         <v>19</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="C332" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D332" s="7">
@@ -7337,7 +7433,7 @@
       <c r="B333" s="1">
         <v>8</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C333" s="15" t="s">
         <v>676</v>
       </c>
       <c r="D333" s="7">
@@ -7351,7 +7447,7 @@
       <c r="B334" s="1">
         <v>19</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C334" s="15" t="s">
         <v>668</v>
       </c>
       <c r="D334" s="7">
@@ -7365,7 +7461,7 @@
       <c r="B335" s="1">
         <v>8</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="15" t="s">
         <v>622</v>
       </c>
       <c r="D335" s="7">
@@ -7379,7 +7475,7 @@
       <c r="B336" s="1">
         <v>19</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C336" s="15" t="s">
         <v>614</v>
       </c>
       <c r="D336" s="7">
@@ -7393,7 +7489,7 @@
       <c r="B337" s="1">
         <v>8</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C337" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D337" s="7">
@@ -7407,7 +7503,7 @@
       <c r="B338" s="1">
         <v>19</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C338" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D338" s="7">
@@ -7421,7 +7517,7 @@
       <c r="B339" s="1">
         <v>8</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="15" t="s">
         <v>690</v>
       </c>
       <c r="D339" s="7">
@@ -7435,7 +7531,7 @@
       <c r="B340" s="1">
         <v>19</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="15" t="s">
         <v>682</v>
       </c>
       <c r="D340" s="7">
@@ -7449,7 +7545,7 @@
       <c r="B341" s="1">
         <v>8</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="C341" s="15" t="s">
         <v>472</v>
       </c>
       <c r="D341" s="7">
@@ -7463,7 +7559,7 @@
       <c r="B342" s="1">
         <v>19</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C342" s="15" t="s">
         <v>464</v>
       </c>
       <c r="D342" s="7">
@@ -7477,7 +7573,7 @@
       <c r="B343" s="1">
         <v>8</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C343" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D343" s="7">
@@ -7491,7 +7587,7 @@
       <c r="B344" s="1">
         <v>19</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C344" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D344" s="7">
@@ -7505,7 +7601,7 @@
       <c r="B345" s="1">
         <v>23</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C345" s="15" t="s">
         <v>565</v>
       </c>
       <c r="D345" s="7">
@@ -7519,7 +7615,7 @@
       <c r="B346" s="1">
         <v>23</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C346" s="15" t="s">
         <v>586</v>
       </c>
       <c r="D346" s="7">
@@ -7533,7 +7629,7 @@
       <c r="B347" s="1">
         <v>23</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C347" s="15" t="s">
         <v>556</v>
       </c>
       <c r="D347" s="7">
@@ -7547,7 +7643,7 @@
       <c r="B348" s="1">
         <v>23</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C348" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D348" s="7">
@@ -7561,7 +7657,7 @@
       <c r="B349" s="1">
         <v>23</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="C349" s="15" t="s">
         <v>645</v>
       </c>
       <c r="D349" s="7">
@@ -7575,7 +7671,7 @@
       <c r="B350" s="1">
         <v>23</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="15" t="s">
         <v>653</v>
       </c>
       <c r="D350" s="7">
@@ -7589,7 +7685,7 @@
       <c r="B351" s="1">
         <v>23</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C351" s="15" t="s">
         <v>661</v>
       </c>
       <c r="D351" s="7">
@@ -7603,7 +7699,7 @@
       <c r="B352" s="1">
         <v>20</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C352" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D352" s="7">
@@ -7617,7 +7713,7 @@
       <c r="B353" s="1">
         <v>23</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C353" s="15" t="s">
         <v>526</v>
       </c>
       <c r="D353" s="7">
@@ -7631,7 +7727,7 @@
       <c r="B354" s="1">
         <v>23</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="15" t="s">
         <v>637</v>
       </c>
       <c r="D354" s="7">
@@ -7645,7 +7741,7 @@
       <c r="B355" s="1">
         <v>14</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="15" t="s">
         <v>508</v>
       </c>
       <c r="D355" s="7">
@@ -7659,7 +7755,7 @@
       <c r="B356" s="1">
         <v>23</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C356" s="15" t="s">
         <v>166</v>
       </c>
       <c r="D356" s="7">
@@ -7673,7 +7769,7 @@
       <c r="B357" s="1">
         <v>15</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="C357" s="15" t="s">
         <v>520</v>
       </c>
       <c r="D357" s="7">
@@ -7687,7 +7783,7 @@
       <c r="B358" s="1">
         <v>8</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C358" s="15" t="s">
         <v>240</v>
       </c>
       <c r="D358" s="7">
@@ -7701,7 +7797,7 @@
       <c r="B359" s="1">
         <v>10</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="C359" s="15" t="s">
         <v>439</v>
       </c>
       <c r="D359" s="7">
@@ -7715,7 +7811,7 @@
       <c r="B360" s="1">
         <v>7</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="C360" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D360" s="7">
@@ -7738,7 +7834,11 @@
     </row>
     <row r="362" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:D361" xr:uid="{88676A4B-8439-4FF1-B4AC-A0095F178336}"/>
+  <autoFilter ref="A1:D361" xr:uid="{88676A4B-8439-4FF1-B4AC-A0095F178336}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D361">
+      <sortCondition ref="C1:C361"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D362">
     <sortCondition ref="C1"/>
   </sortState>

--- a/Opcodes.xlsx
+++ b/Opcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newman.c\Source\repos\Z80CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74B3B4-7C35-428A-BFE7-9015A3DA45CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646AADCD-64FE-47F5-95F0-5247F6ADC421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{048A5853-C2CF-472B-B65B-479DA1D6E657}"/>
+    <workbookView xWindow="32535" yWindow="1020" windowWidth="21600" windowHeight="14205" xr2:uid="{048A5853-C2CF-472B-B65B-479DA1D6E657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2769,22 +2769,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF609AB8-E8AD-4889-BB06-0C50E76FDAB8}">
-  <dimension ref="A1:D362"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="17" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>691</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>458</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>334</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>267</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>205</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>130</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>324</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>568</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>167</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>295</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>131</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>206</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>133</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>342</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>589</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>157</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>365</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>268</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>209</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>208</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>135</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>355</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>559</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>257</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>297</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>136</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>210</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>138</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>373</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>579</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>263</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>392</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>287</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>213</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>212</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>140</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>386</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>122</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>265</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>390</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>141</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>222</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>151</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>426</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>120</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>261</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>440</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>281</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>224</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>197</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>123</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>269</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>631</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>259</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>38</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>305</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>153</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>202</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>128</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>307</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>95</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>326</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>319</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>344</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>336</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>357</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>350</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>375</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>367</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>388</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>381</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>428</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>420</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>271</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>172</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>309</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>299</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>29</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>8</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>671</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>664</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>617</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>609</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>685</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>677</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>467</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>459</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>105</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>97</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>537</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>499</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>247</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>233</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>85</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>511</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>27</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>593</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>545</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>529</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>255</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>566</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>560</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>587</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>581</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>557</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>551</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>577</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>571</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>646</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>640</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>654</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>648</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>662</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>656</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>75</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>69</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>527</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>521</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>638</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>632</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>93</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>77</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>595</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>535</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>501</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>245</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>491</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>83</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>513</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>669</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>597</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>531</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>170</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>241</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>181</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>79</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>218</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>147</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>39</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>41</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>398</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>289</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>214</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>400</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>43</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>396</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>143</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>404</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>198</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>124</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>273</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>45</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>328</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>320</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>346</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>338</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>359</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>351</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>377</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>369</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>402</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>382</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>406</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>422</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>275</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>311</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>301</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>31</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>23</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>10</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>673</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>665</v>
       </c>
@@ -5332,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>619</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>611</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>65</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>57</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>687</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>679</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>469</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>461</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>107</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>99</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>562</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>583</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>553</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>573</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>642</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>650</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>658</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>71</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>523</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>634</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>505</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>163</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>517</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>237</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>436</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>615</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>599</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>543</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>503</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>253</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>161</v>
       </c>
@@ -5766,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>91</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>515</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>61</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>601</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>541</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>235</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>251</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>168</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>89</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>183</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>479</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>623</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>283</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>456</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>549</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>173</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>394</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>185</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>481</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>14</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>332</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>547</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>430</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>187</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>483</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>625</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>285</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>175</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>315</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>189</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>485</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>16</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>363</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>177</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>317</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>191</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>487</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>627</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>591</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>193</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>489</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>18</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>569</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>195</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>629</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>293</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>179</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>477</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>20</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>432</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>446</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>116</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>229</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>495</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>442</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>111</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>225</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>493</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>448</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>118</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>231</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>475</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>444</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>113</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>227</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>473</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>450</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>452</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>454</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>683</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>603</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>539</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>497</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>249</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>155</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>87</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>509</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>465</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>605</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>533</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>434</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>243</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>159</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>81</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>220</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>149</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>47</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>49</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>410</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>291</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>216</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>412</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>51</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>408</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>145</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>416</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>200</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>126</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>277</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>53</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>330</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>322</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>348</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>340</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>361</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>353</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>379</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>371</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>414</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>384</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>418</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>424</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>279</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>313</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>303</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>33</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>25</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>12</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>4</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>675</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>667</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>621</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>613</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>67</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>59</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>689</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>681</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>471</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>463</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>109</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>101</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>564</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>585</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>555</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>575</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>644</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>652</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>660</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>73</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>525</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>636</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>507</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>165</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>519</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>239</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>438</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>103</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
         <v>607</v>
       </c>
@@ -7832,9 +7833,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:D361" xr:uid="{88676A4B-8439-4FF1-B4AC-A0095F178336}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D361">
       <sortCondition ref="C1:C361"/>
     </sortState>

--- a/Opcodes.xlsx
+++ b/Opcodes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newman.c\Source\repos\Z80CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646AADCD-64FE-47F5-95F0-5247F6ADC421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D162DB-7ECC-419F-ADB1-0DF6108D3DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="1020" windowWidth="21600" windowHeight="14205" xr2:uid="{048A5853-C2CF-472B-B65B-479DA1D6E657}"/>
+    <workbookView xWindow="28905" yWindow="390" windowWidth="21600" windowHeight="13125" xr2:uid="{048A5853-C2CF-472B-B65B-479DA1D6E657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$361</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="889">
   <si>
     <t>ADC A,(HL)</t>
   </si>
@@ -2211,6 +2211,498 @@
   </si>
   <si>
     <t>96</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>00+r</t>
+  </si>
+  <si>
+    <t>08+r</t>
+  </si>
+  <si>
+    <t>10+r</t>
+  </si>
+  <si>
+    <t>18+r</t>
+  </si>
+  <si>
+    <t>20+r</t>
+  </si>
+  <si>
+    <t>28+r</t>
+  </si>
+  <si>
+    <t>38+r</t>
+  </si>
+  <si>
+    <t>40+8*b+r</t>
+  </si>
+  <si>
+    <t>46+8*b</t>
+  </si>
+  <si>
+    <t>80+8*b+r</t>
+  </si>
+  <si>
+    <t>86+8*b</t>
+  </si>
+  <si>
+    <t>C0+8*b+r</t>
+  </si>
+  <si>
+    <t>C6+8*b</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>04+8*p</t>
+  </si>
+  <si>
+    <t>05+8*p</t>
+  </si>
+  <si>
+    <t>40+p</t>
+  </si>
+  <si>
+    <t>48+p</t>
+  </si>
+  <si>
+    <t>50+p</t>
+  </si>
+  <si>
+    <t>58+p</t>
+  </si>
+  <si>
+    <t>60+p</t>
+  </si>
+  <si>
+    <t>68+p</t>
+  </si>
+  <si>
+    <t>78+p</t>
+  </si>
+  <si>
+    <t>80+p</t>
+  </si>
+  <si>
+    <t>88+p</t>
+  </si>
+  <si>
+    <t>90+p</t>
+  </si>
+  <si>
+    <t>98+p</t>
+  </si>
+  <si>
+    <t>A0+p</t>
+  </si>
+  <si>
+    <t>A8+p</t>
+  </si>
+  <si>
+    <t>B0+p</t>
+  </si>
+  <si>
+    <t>B8+p</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>C1+8*r</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>04+8*q</t>
+  </si>
+  <si>
+    <t>05+8*q</t>
+  </si>
+  <si>
+    <t>40+q</t>
+  </si>
+  <si>
+    <t>48+q</t>
+  </si>
+  <si>
+    <t>50+q</t>
+  </si>
+  <si>
+    <t>58+q</t>
+  </si>
+  <si>
+    <t>60+q</t>
+  </si>
+  <si>
+    <t>68+q</t>
+  </si>
+  <si>
+    <t>78+q</t>
+  </si>
+  <si>
+    <t>80+q</t>
+  </si>
+  <si>
+    <t>88+q</t>
+  </si>
+  <si>
+    <t>90+q</t>
+  </si>
+  <si>
+    <t>98+q</t>
+  </si>
+  <si>
+    <t>A0+q</t>
+  </si>
+  <si>
+    <t>A8+q</t>
+  </si>
+  <si>
+    <t>B0+q</t>
+  </si>
+  <si>
+    <t>B8+q</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Forth</t>
+  </si>
+  <si>
+    <t>First Count</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2454,6 +2946,21 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2770,22 +3277,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF609AB8-E8AD-4889-BB06-0C50E76FDAB8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="17" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>691</v>
       </c>
@@ -2798,8 +3309,23 @@
       <c r="D1" s="11" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>458</v>
       </c>
@@ -2812,8 +3338,15 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="F2" s="23">
+        <f>COUNTIF(E:E,E2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>334</v>
       </c>
@@ -2826,8 +3359,21 @@
       <c r="D3" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="23">
+        <f t="shared" ref="F3:F66" si="0">COUNTIF(E:E,E3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>267</v>
       </c>
@@ -2840,8 +3386,15 @@
       <c r="D4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="F4" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>205</v>
       </c>
@@ -2854,8 +3407,15 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
@@ -2868,8 +3428,15 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>130</v>
       </c>
@@ -2882,8 +3449,15 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>324</v>
       </c>
@@ -2896,8 +3470,18 @@
       <c r="D8" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>568</v>
       </c>
@@ -2910,8 +3494,15 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>167</v>
       </c>
@@ -2924,8 +3515,15 @@
       <c r="D10" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2938,8 +3536,15 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>295</v>
       </c>
@@ -2952,8 +3557,15 @@
       <c r="D12" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>131</v>
       </c>
@@ -2966,8 +3578,15 @@
       <c r="D13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>206</v>
       </c>
@@ -2980,8 +3599,15 @@
       <c r="D14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>133</v>
       </c>
@@ -2994,8 +3620,15 @@
       <c r="D15" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>342</v>
       </c>
@@ -3008,8 +3641,18 @@
       <c r="D16" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>589</v>
       </c>
@@ -3022,8 +3665,15 @@
       <c r="D17" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>157</v>
       </c>
@@ -3036,8 +3686,18 @@
       <c r="D18" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>365</v>
       </c>
@@ -3050,8 +3710,21 @@
       <c r="D19" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>268</v>
       </c>
@@ -3064,8 +3737,15 @@
       <c r="D20" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="F20" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>209</v>
       </c>
@@ -3078,8 +3758,15 @@
       <c r="D21" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="F21" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>208</v>
       </c>
@@ -3092,8 +3779,15 @@
       <c r="D22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>135</v>
       </c>
@@ -3106,8 +3800,15 @@
       <c r="D23" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>355</v>
       </c>
@@ -3120,8 +3821,18 @@
       <c r="D24" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>559</v>
       </c>
@@ -3134,8 +3845,15 @@
       <c r="D25" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="F25" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>257</v>
       </c>
@@ -3148,8 +3866,18 @@
       <c r="D26" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -3162,8 +3890,15 @@
       <c r="D27" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>297</v>
       </c>
@@ -3176,8 +3911,15 @@
       <c r="D28" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>136</v>
       </c>
@@ -3190,8 +3932,15 @@
       <c r="D29" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>210</v>
       </c>
@@ -3204,8 +3953,15 @@
       <c r="D30" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>138</v>
       </c>
@@ -3218,8 +3974,15 @@
       <c r="D31" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>373</v>
       </c>
@@ -3232,8 +3995,18 @@
       <c r="D32" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="F32" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>579</v>
       </c>
@@ -3246,8 +4019,15 @@
       <c r="D33" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>263</v>
       </c>
@@ -3260,8 +4040,18 @@
       <c r="D34" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>392</v>
       </c>
@@ -3274,8 +4064,21 @@
       <c r="D35" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>287</v>
       </c>
@@ -3288,8 +4091,21 @@
       <c r="D36" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>213</v>
       </c>
@@ -3302,8 +4118,15 @@
       <c r="D37" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="F37" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>212</v>
       </c>
@@ -3316,8 +4139,15 @@
       <c r="D38" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="F38" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>140</v>
       </c>
@@ -3330,8 +4160,15 @@
       <c r="D39" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="F39" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>386</v>
       </c>
@@ -3344,8 +4181,18 @@
       <c r="D40" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="F40" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>122</v>
       </c>
@@ -3358,8 +4205,15 @@
       <c r="D41" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="F41" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>265</v>
       </c>
@@ -3372,8 +4226,18 @@
       <c r="D42" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="F42" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -3386,8 +4250,15 @@
       <c r="D43" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="F43" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>390</v>
       </c>
@@ -3400,8 +4271,21 @@
       <c r="D44" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="F44" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>141</v>
       </c>
@@ -3414,8 +4298,15 @@
       <c r="D45" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>222</v>
       </c>
@@ -3428,8 +4319,15 @@
       <c r="D46" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>151</v>
       </c>
@@ -3442,8 +4340,15 @@
       <c r="D47" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>426</v>
       </c>
@@ -3456,8 +4361,18 @@
       <c r="D48" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="F48" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>120</v>
       </c>
@@ -3470,8 +4385,15 @@
       <c r="D49" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>261</v>
       </c>
@@ -3484,8 +4406,18 @@
       <c r="D50" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="F50" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>440</v>
       </c>
@@ -3498,8 +4430,21 @@
       <c r="D51" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="F51" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>281</v>
       </c>
@@ -3512,8 +4457,21 @@
       <c r="D52" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F52" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>224</v>
       </c>
@@ -3526,8 +4484,15 @@
       <c r="D53" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="F53" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>197</v>
       </c>
@@ -3540,8 +4505,15 @@
       <c r="D54" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="F54" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>123</v>
       </c>
@@ -3554,8 +4526,15 @@
       <c r="D55" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="F55" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>269</v>
       </c>
@@ -3568,8 +4547,18 @@
       <c r="D56" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="F56" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>631</v>
       </c>
@@ -3582,8 +4571,15 @@
       <c r="D57" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="F57" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>259</v>
       </c>
@@ -3596,8 +4592,18 @@
       <c r="D58" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="F58" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>38</v>
       </c>
@@ -3610,8 +4616,15 @@
       <c r="D59" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="F59" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>305</v>
       </c>
@@ -3624,8 +4637,21 @@
       <c r="D60" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="F60" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>153</v>
       </c>
@@ -3638,8 +4664,15 @@
       <c r="D61" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>202</v>
       </c>
@@ -3652,8 +4685,15 @@
       <c r="D62" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>128</v>
       </c>
@@ -3666,8 +4706,15 @@
       <c r="D63" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>307</v>
       </c>
@@ -3680,8 +4727,18 @@
       <c r="D64" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="F64" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>95</v>
       </c>
@@ -3694,8 +4751,15 @@
       <c r="D65" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>326</v>
       </c>
@@ -3708,8 +4772,15 @@
       <c r="D66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F66" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>319</v>
       </c>
@@ -3722,8 +4793,15 @@
       <c r="D67" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="F67" s="23">
+        <f t="shared" ref="F67:F130" si="1">COUNTIF(E:E,E67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>344</v>
       </c>
@@ -3736,8 +4814,15 @@
       <c r="D68" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F68" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>336</v>
       </c>
@@ -3750,8 +4835,15 @@
       <c r="D69" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F69" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>357</v>
       </c>
@@ -3764,8 +4856,15 @@
       <c r="D70" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F70" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>350</v>
       </c>
@@ -3778,8 +4877,15 @@
       <c r="D71" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F71" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>375</v>
       </c>
@@ -3792,8 +4898,15 @@
       <c r="D72" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F72" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>367</v>
       </c>
@@ -3806,8 +4919,15 @@
       <c r="D73" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="F73" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>388</v>
       </c>
@@ -3820,8 +4940,15 @@
       <c r="D74" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F74" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>381</v>
       </c>
@@ -3834,8 +4961,15 @@
       <c r="D75" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="F75" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>428</v>
       </c>
@@ -3848,8 +4982,15 @@
       <c r="D76" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F76" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>420</v>
       </c>
@@ -3862,8 +5003,15 @@
       <c r="D77" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F77" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>271</v>
       </c>
@@ -3876,8 +5024,15 @@
       <c r="D78" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F78" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>172</v>
       </c>
@@ -3890,8 +5045,15 @@
       <c r="D79" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="F79" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>309</v>
       </c>
@@ -3904,8 +5066,15 @@
       <c r="D80" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>299</v>
       </c>
@@ -3918,8 +5087,15 @@
       <c r="D81" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>29</v>
       </c>
@@ -3932,8 +5108,15 @@
       <c r="D82" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
@@ -3946,8 +5129,15 @@
       <c r="D83" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="F83" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>8</v>
       </c>
@@ -3960,8 +5150,15 @@
       <c r="D84" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>0</v>
       </c>
@@ -3974,8 +5171,15 @@
       <c r="D85" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>671</v>
       </c>
@@ -3988,8 +5192,15 @@
       <c r="D86" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="F86" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>664</v>
       </c>
@@ -4002,8 +5213,15 @@
       <c r="D87" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="F87" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>617</v>
       </c>
@@ -4016,8 +5234,15 @@
       <c r="D88" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="F88" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>609</v>
       </c>
@@ -4030,8 +5255,15 @@
       <c r="D89" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="F89" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
@@ -4044,8 +5276,15 @@
       <c r="D90" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -4058,8 +5297,15 @@
       <c r="D91" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>685</v>
       </c>
@@ -4072,8 +5318,15 @@
       <c r="D92" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="F92" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>677</v>
       </c>
@@ -4086,8 +5339,15 @@
       <c r="D93" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="F93" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>467</v>
       </c>
@@ -4100,8 +5360,15 @@
       <c r="D94" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="F94" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>459</v>
       </c>
@@ -4114,8 +5381,15 @@
       <c r="D95" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="F95" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>105</v>
       </c>
@@ -4128,8 +5402,15 @@
       <c r="D96" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>97</v>
       </c>
@@ -4142,8 +5423,15 @@
       <c r="D97" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>537</v>
       </c>
@@ -4156,8 +5444,15 @@
       <c r="D98" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="F98" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>499</v>
       </c>
@@ -4170,8 +5465,15 @@
       <c r="D99" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="F99" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>247</v>
       </c>
@@ -4184,8 +5486,21 @@
       <c r="D100" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="F100" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>233</v>
       </c>
@@ -4198,8 +5513,21 @@
       <c r="D101" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="F101" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>85</v>
       </c>
@@ -4212,8 +5540,21 @@
       <c r="D102" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="F102" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>511</v>
       </c>
@@ -4226,8 +5567,15 @@
       <c r="D103" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="F103" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>27</v>
       </c>
@@ -4240,8 +5588,18 @@
       <c r="D104" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="F104" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>593</v>
       </c>
@@ -4254,8 +5612,15 @@
       <c r="D105" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F105" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>545</v>
       </c>
@@ -4268,8 +5633,15 @@
       <c r="D106" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="F106" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>529</v>
       </c>
@@ -4282,8 +5654,15 @@
       <c r="D107" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F107" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>255</v>
       </c>
@@ -4296,8 +5675,21 @@
       <c r="D108" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="F108" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>566</v>
       </c>
@@ -4310,8 +5702,18 @@
       <c r="D109" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F109" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>560</v>
       </c>
@@ -4324,8 +5726,18 @@
       <c r="D110" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F110" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>587</v>
       </c>
@@ -4338,8 +5750,18 @@
       <c r="D111" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F111" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>581</v>
       </c>
@@ -4352,8 +5774,18 @@
       <c r="D112" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F112" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>557</v>
       </c>
@@ -4366,8 +5798,18 @@
       <c r="D113" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F113" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>551</v>
       </c>
@@ -4380,8 +5822,18 @@
       <c r="D114" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F114" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>577</v>
       </c>
@@ -4394,8 +5846,18 @@
       <c r="D115" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F115" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>571</v>
       </c>
@@ -4408,8 +5870,18 @@
       <c r="D116" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F116" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>646</v>
       </c>
@@ -4422,8 +5894,18 @@
       <c r="D117" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F117" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>640</v>
       </c>
@@ -4436,8 +5918,18 @@
       <c r="D118" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F118" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>654</v>
       </c>
@@ -4450,8 +5942,18 @@
       <c r="D119" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F119" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>648</v>
       </c>
@@ -4464,8 +5966,18 @@
       <c r="D120" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F120" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>662</v>
       </c>
@@ -4478,8 +5990,18 @@
       <c r="D121" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F121" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>656</v>
       </c>
@@ -4492,8 +6014,18 @@
       <c r="D122" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F122" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>75</v>
       </c>
@@ -4506,8 +6038,18 @@
       <c r="D123" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F123" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>69</v>
       </c>
@@ -4520,8 +6062,18 @@
       <c r="D124" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F124" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>527</v>
       </c>
@@ -4534,8 +6086,18 @@
       <c r="D125" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F125" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>521</v>
       </c>
@@ -4548,8 +6110,18 @@
       <c r="D126" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F126" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>638</v>
       </c>
@@ -4562,8 +6134,18 @@
       <c r="D127" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F127" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>632</v>
       </c>
@@ -4576,8 +6158,18 @@
       <c r="D128" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F128" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>93</v>
       </c>
@@ -4590,8 +6182,21 @@
       <c r="D129" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="F129" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>77</v>
       </c>
@@ -4604,8 +6209,21 @@
       <c r="D130" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="F130" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
@@ -4618,8 +6236,18 @@
       <c r="D131" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="F131" s="23">
+        <f t="shared" ref="F131:F194" si="2">COUNTIF(E:E,E131)</f>
+        <v>1</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>595</v>
       </c>
@@ -4632,8 +6260,15 @@
       <c r="D132" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="F132" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>535</v>
       </c>
@@ -4646,8 +6281,15 @@
       <c r="D133" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="F133" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>501</v>
       </c>
@@ -4660,8 +6302,15 @@
       <c r="D134" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="F134" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>245</v>
       </c>
@@ -4674,8 +6323,21 @@
       <c r="D135" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="F135" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>491</v>
       </c>
@@ -4688,8 +6350,18 @@
       <c r="D136" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="F136" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>83</v>
       </c>
@@ -4702,8 +6374,21 @@
       <c r="D137" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="F137" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>513</v>
       </c>
@@ -4716,8 +6401,15 @@
       <c r="D138" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="F138" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>669</v>
       </c>
@@ -4730,8 +6422,18 @@
       <c r="D139" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="F139" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>597</v>
       </c>
@@ -4744,8 +6446,15 @@
       <c r="D140" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="F140" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>531</v>
       </c>
@@ -4758,8 +6467,15 @@
       <c r="D141" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="F141" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>170</v>
       </c>
@@ -4772,8 +6488,15 @@
       <c r="D142" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F142" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>241</v>
       </c>
@@ -4786,8 +6509,21 @@
       <c r="D143" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>181</v>
       </c>
@@ -4800,8 +6536,18 @@
       <c r="D144" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="F144" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>79</v>
       </c>
@@ -4814,8 +6560,21 @@
       <c r="D145" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="F145" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H145" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>218</v>
       </c>
@@ -4828,8 +6587,18 @@
       <c r="D146" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F146" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>147</v>
       </c>
@@ -4842,8 +6611,18 @@
       <c r="D147" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F147" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>39</v>
       </c>
@@ -4856,8 +6635,18 @@
       <c r="D148" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F148" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>41</v>
       </c>
@@ -4870,8 +6659,18 @@
       <c r="D149" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F149" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>398</v>
       </c>
@@ -4884,8 +6683,24 @@
       <c r="D150" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F150" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>289</v>
       </c>
@@ -4898,8 +6713,24 @@
       <c r="D151" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F151" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="H151" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>214</v>
       </c>
@@ -4912,8 +6743,18 @@
       <c r="D152" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F152" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>400</v>
       </c>
@@ -4926,8 +6767,21 @@
       <c r="D153" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F153" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="H153" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>43</v>
       </c>
@@ -4940,8 +6794,18 @@
       <c r="D154" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F154" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>396</v>
       </c>
@@ -4954,8 +6818,24 @@
       <c r="D155" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F155" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>143</v>
       </c>
@@ -4968,8 +6848,18 @@
       <c r="D156" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F156" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>404</v>
       </c>
@@ -4982,8 +6872,21 @@
       <c r="D157" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F157" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>198</v>
       </c>
@@ -4996,8 +6899,21 @@
       <c r="D158" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F158" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>124</v>
       </c>
@@ -5010,8 +6926,21 @@
       <c r="D159" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F159" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>273</v>
       </c>
@@ -5024,8 +6953,24 @@
       <c r="D160" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F160" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I160" s="20" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>45</v>
       </c>
@@ -5038,8 +6983,18 @@
       <c r="D161" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F161" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>328</v>
       </c>
@@ -5052,8 +7007,18 @@
       <c r="D162" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F162" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>320</v>
       </c>
@@ -5066,8 +7031,21 @@
       <c r="D163" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F163" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>346</v>
       </c>
@@ -5080,8 +7058,18 @@
       <c r="D164" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F164" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>338</v>
       </c>
@@ -5094,8 +7082,21 @@
       <c r="D165" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F165" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>359</v>
       </c>
@@ -5108,8 +7109,18 @@
       <c r="D166" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F166" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>351</v>
       </c>
@@ -5122,8 +7133,21 @@
       <c r="D167" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F167" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>377</v>
       </c>
@@ -5136,8 +7160,18 @@
       <c r="D168" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F168" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>369</v>
       </c>
@@ -5150,8 +7184,21 @@
       <c r="D169" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F169" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>402</v>
       </c>
@@ -5164,8 +7211,18 @@
       <c r="D170" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F170" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>382</v>
       </c>
@@ -5178,8 +7235,21 @@
       <c r="D171" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F171" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>406</v>
       </c>
@@ -5192,8 +7262,18 @@
       <c r="D172" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F172" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>422</v>
       </c>
@@ -5206,8 +7286,21 @@
       <c r="D173" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F173" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G173" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>275</v>
       </c>
@@ -5220,8 +7313,21 @@
       <c r="D174" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F174" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G174" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>311</v>
       </c>
@@ -5234,8 +7340,18 @@
       <c r="D175" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F175" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>301</v>
       </c>
@@ -5248,8 +7364,21 @@
       <c r="D176" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F176" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>31</v>
       </c>
@@ -5262,8 +7391,18 @@
       <c r="D177" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F177" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G177" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>23</v>
       </c>
@@ -5276,8 +7415,21 @@
       <c r="D178" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F178" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>10</v>
       </c>
@@ -5290,8 +7442,18 @@
       <c r="D179" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F179" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G179" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>2</v>
       </c>
@@ -5304,8 +7466,21 @@
       <c r="D180" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F180" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H180" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>673</v>
       </c>
@@ -5318,8 +7493,18 @@
       <c r="D181" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F181" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G181" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>665</v>
       </c>
@@ -5332,8 +7517,21 @@
       <c r="D182" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F182" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>619</v>
       </c>
@@ -5346,8 +7544,18 @@
       <c r="D183" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F183" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>611</v>
       </c>
@@ -5360,8 +7568,21 @@
       <c r="D184" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E184" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F184" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G184" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>65</v>
       </c>
@@ -5374,8 +7595,18 @@
       <c r="D185" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F185" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>57</v>
       </c>
@@ -5388,8 +7619,21 @@
       <c r="D186" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F186" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>687</v>
       </c>
@@ -5402,8 +7646,18 @@
       <c r="D187" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F187" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>679</v>
       </c>
@@ -5416,8 +7670,21 @@
       <c r="D188" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F188" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>469</v>
       </c>
@@ -5430,8 +7697,18 @@
       <c r="D189" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F189" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>461</v>
       </c>
@@ -5444,8 +7721,21 @@
       <c r="D190" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F190" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>107</v>
       </c>
@@ -5458,8 +7748,18 @@
       <c r="D191" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F191" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>99</v>
       </c>
@@ -5472,8 +7772,21 @@
       <c r="D192" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F192" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>562</v>
       </c>
@@ -5486,8 +7799,24 @@
       <c r="D193" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F193" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H193" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I193" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>583</v>
       </c>
@@ -5500,8 +7829,24 @@
       <c r="D194" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F194" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I194" s="20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>553</v>
       </c>
@@ -5514,8 +7859,24 @@
       <c r="D195" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F195" s="23">
+        <f t="shared" ref="F195:F258" si="3">COUNTIF(E:E,E195)</f>
+        <v>62</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I195" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>573</v>
       </c>
@@ -5528,8 +7889,24 @@
       <c r="D196" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F196" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I196" s="20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>642</v>
       </c>
@@ -5542,8 +7919,24 @@
       <c r="D197" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F197" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I197" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>650</v>
       </c>
@@ -5556,8 +7949,24 @@
       <c r="D198" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F198" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I198" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>658</v>
       </c>
@@ -5570,8 +7979,24 @@
       <c r="D199" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F199" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I199" s="20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>71</v>
       </c>
@@ -5584,8 +8009,24 @@
       <c r="D200" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F200" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I200" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>523</v>
       </c>
@@ -5598,8 +8039,24 @@
       <c r="D201" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E201" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F201" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G201" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I201" s="20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>634</v>
       </c>
@@ -5612,8 +8069,24 @@
       <c r="D202" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F202" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I202" s="20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>505</v>
       </c>
@@ -5626,8 +8099,18 @@
       <c r="D203" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E203" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F203" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G203" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>163</v>
       </c>
@@ -5640,8 +8123,18 @@
       <c r="D204" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E204" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F204" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G204" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>517</v>
       </c>
@@ -5654,8 +8147,18 @@
       <c r="D205" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E205" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F205" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G205" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>237</v>
       </c>
@@ -5668,8 +8171,18 @@
       <c r="D206" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F206" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>436</v>
       </c>
@@ -5682,8 +8195,18 @@
       <c r="D207" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F207" s="23">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G207" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>615</v>
       </c>
@@ -5696,8 +8219,18 @@
       <c r="D208" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E208" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="F208" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G208" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>599</v>
       </c>
@@ -5710,8 +8243,15 @@
       <c r="D209" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E209" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="F209" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>543</v>
       </c>
@@ -5724,8 +8264,15 @@
       <c r="D210" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E210" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="F210" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>503</v>
       </c>
@@ -5738,8 +8285,15 @@
       <c r="D211" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E211" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="F211" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>253</v>
       </c>
@@ -5752,8 +8306,21 @@
       <c r="D212" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E212" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="F212" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G212" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H212" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>161</v>
       </c>
@@ -5766,8 +8333,15 @@
       <c r="D213" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E213" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F213" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>91</v>
       </c>
@@ -5780,8 +8354,21 @@
       <c r="D214" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E214" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="F214" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G214" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H214" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>515</v>
       </c>
@@ -5794,8 +8381,15 @@
       <c r="D215" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E215" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F215" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>61</v>
       </c>
@@ -5808,8 +8402,18 @@
       <c r="D216" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E216" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="F216" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G216" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>601</v>
       </c>
@@ -5822,8 +8426,15 @@
       <c r="D217" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E217" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="F217" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>541</v>
       </c>
@@ -5836,8 +8447,15 @@
       <c r="D218" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E218" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F218" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>235</v>
       </c>
@@ -5850,8 +8468,15 @@
       <c r="D219" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E219" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F219" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>251</v>
       </c>
@@ -5864,8 +8489,21 @@
       <c r="D220" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E220" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="F220" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G220" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H220" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>168</v>
       </c>
@@ -5878,8 +8516,15 @@
       <c r="D221" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F221" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>89</v>
       </c>
@@ -5892,8 +8537,21 @@
       <c r="D222" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E222" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="F222" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G222" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H222" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>183</v>
       </c>
@@ -5906,8 +8564,18 @@
       <c r="D223" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F223" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G223" s="17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>479</v>
       </c>
@@ -5920,8 +8588,18 @@
       <c r="D224" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E224" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F224" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G224" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>623</v>
       </c>
@@ -5934,8 +8612,18 @@
       <c r="D225" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E225" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F225" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G225" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>283</v>
       </c>
@@ -5948,8 +8636,24 @@
       <c r="D226" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E226" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F226" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G226" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="H226" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I226" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>456</v>
       </c>
@@ -5962,8 +8666,18 @@
       <c r="D227" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E227" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F227" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G227" s="17" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>549</v>
       </c>
@@ -5976,8 +8690,18 @@
       <c r="D228" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E228" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F228" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>173</v>
       </c>
@@ -5990,8 +8714,18 @@
       <c r="D229" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E229" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F229" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G229" s="17" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>394</v>
       </c>
@@ -6004,8 +8738,18 @@
       <c r="D230" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E230" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F230" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G230" s="17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>185</v>
       </c>
@@ -6018,8 +8762,18 @@
       <c r="D231" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E231" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F231" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G231" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>481</v>
       </c>
@@ -6032,8 +8786,18 @@
       <c r="D232" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E232" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F232" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G232" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>14</v>
       </c>
@@ -6046,8 +8810,18 @@
       <c r="D233" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E233" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F233" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G233" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>332</v>
       </c>
@@ -6060,8 +8834,24 @@
       <c r="D234" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E234" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F234" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G234" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I234" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>547</v>
       </c>
@@ -6074,8 +8864,18 @@
       <c r="D235" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E235" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F235" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G235" s="17" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>430</v>
       </c>
@@ -6088,8 +8888,18 @@
       <c r="D236" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E236" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F236" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G236" s="17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>187</v>
       </c>
@@ -6102,8 +8912,18 @@
       <c r="D237" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E237" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F237" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G237" s="17" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>483</v>
       </c>
@@ -6116,8 +8936,18 @@
       <c r="D238" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E238" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F238" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G238" s="17" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>625</v>
       </c>
@@ -6130,8 +8960,18 @@
       <c r="D239" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E239" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F239" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G239" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>285</v>
       </c>
@@ -6144,8 +8984,24 @@
       <c r="D240" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E240" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F240" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G240" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="H240" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I240" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>175</v>
       </c>
@@ -6158,8 +9014,18 @@
       <c r="D241" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E241" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F241" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G241" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>315</v>
       </c>
@@ -6172,8 +9038,18 @@
       <c r="D242" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E242" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F242" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G242" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>189</v>
       </c>
@@ -6186,8 +9062,18 @@
       <c r="D243" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E243" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F243" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G243" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>485</v>
       </c>
@@ -6200,8 +9086,18 @@
       <c r="D244" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E244" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F244" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G244" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>16</v>
       </c>
@@ -6214,8 +9110,18 @@
       <c r="D245" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E245" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F245" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G245" s="17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>363</v>
       </c>
@@ -6228,8 +9134,24 @@
       <c r="D246" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E246" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F246" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G246" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="H246" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I246" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>177</v>
       </c>
@@ -6242,8 +9164,18 @@
       <c r="D247" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E247" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F247" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G247" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>317</v>
       </c>
@@ -6256,8 +9188,18 @@
       <c r="D248" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E248" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F248" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G248" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>191</v>
       </c>
@@ -6270,8 +9212,18 @@
       <c r="D249" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E249" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F249" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G249" s="17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>487</v>
       </c>
@@ -6284,8 +9236,18 @@
       <c r="D250" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E250" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F250" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G250" s="17" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>627</v>
       </c>
@@ -6298,8 +9260,18 @@
       <c r="D251" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E251" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F251" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G251" s="17" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>591</v>
       </c>
@@ -6312,8 +9284,18 @@
       <c r="D252" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E252" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F252" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G252" s="17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>193</v>
       </c>
@@ -6326,8 +9308,18 @@
       <c r="D253" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E253" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F253" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G253" s="17" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>489</v>
       </c>
@@ -6340,8 +9332,18 @@
       <c r="D254" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E254" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F254" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G254" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>18</v>
       </c>
@@ -6354,8 +9356,18 @@
       <c r="D255" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E255" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F255" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G255" s="17" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>569</v>
       </c>
@@ -6368,8 +9380,18 @@
       <c r="D256" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E256" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F256" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G256" s="17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>195</v>
       </c>
@@ -6382,8 +9404,18 @@
       <c r="D257" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E257" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F257" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G257" s="17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>629</v>
       </c>
@@ -6396,8 +9428,18 @@
       <c r="D258" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E258" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F258" s="23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G258" s="17" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>293</v>
       </c>
@@ -6410,8 +9452,24 @@
       <c r="D259" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E259" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F259" s="23">
+        <f t="shared" ref="F259:F322" si="4">COUNTIF(E:E,E259)</f>
+        <v>60</v>
+      </c>
+      <c r="G259" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="H259" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I259" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>179</v>
       </c>
@@ -6424,8 +9482,18 @@
       <c r="D260" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E260" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F260" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G260" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>477</v>
       </c>
@@ -6438,8 +9506,18 @@
       <c r="D261" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E261" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F261" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G261" s="17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>20</v>
       </c>
@@ -6452,8 +9530,18 @@
       <c r="D262" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E262" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F262" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G262" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>432</v>
       </c>
@@ -6466,8 +9554,24 @@
       <c r="D263" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E263" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F263" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G263" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="H263" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>446</v>
       </c>
@@ -6480,8 +9584,18 @@
       <c r="D264" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E264" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F264" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>116</v>
       </c>
@@ -6494,8 +9608,18 @@
       <c r="D265" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E265" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F265" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G265" s="17" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>229</v>
       </c>
@@ -6508,8 +9632,18 @@
       <c r="D266" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E266" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F266" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G266" s="17" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>495</v>
       </c>
@@ -6522,8 +9656,18 @@
       <c r="D267" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E267" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F267" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G267" s="17" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>442</v>
       </c>
@@ -6536,8 +9680,18 @@
       <c r="D268" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E268" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F268" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G268" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>111</v>
       </c>
@@ -6550,8 +9704,18 @@
       <c r="D269" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E269" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F269" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G269" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>225</v>
       </c>
@@ -6564,8 +9728,18 @@
       <c r="D270" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E270" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F270" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G270" s="17" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>493</v>
       </c>
@@ -6578,8 +9752,18 @@
       <c r="D271" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E271" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F271" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G271" s="17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>448</v>
       </c>
@@ -6592,8 +9776,18 @@
       <c r="D272" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E272" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F272" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G272" s="17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>118</v>
       </c>
@@ -6606,8 +9800,18 @@
       <c r="D273" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E273" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F273" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G273" s="17" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>231</v>
       </c>
@@ -6620,8 +9824,18 @@
       <c r="D274" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E274" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F274" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G274" s="17" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>475</v>
       </c>
@@ -6634,8 +9848,18 @@
       <c r="D275" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E275" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F275" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G275" s="17" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>444</v>
       </c>
@@ -6648,8 +9872,18 @@
       <c r="D276" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E276" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F276" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G276" s="17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>113</v>
       </c>
@@ -6662,8 +9896,18 @@
       <c r="D277" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E277" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F277" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G277" s="17" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>227</v>
       </c>
@@ -6676,8 +9920,18 @@
       <c r="D278" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E278" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F278" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G278" s="17" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>473</v>
       </c>
@@ -6690,8 +9944,18 @@
       <c r="D279" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E279" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F279" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G279" s="17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>450</v>
       </c>
@@ -6702,8 +9966,18 @@
       <c r="D280" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E280" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F280" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G280" s="17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>452</v>
       </c>
@@ -6714,8 +9988,18 @@
       <c r="D281" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E281" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F281" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G281" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>454</v>
       </c>
@@ -6726,8 +10010,18 @@
       <c r="D282" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E282" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F282" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G282" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>683</v>
       </c>
@@ -6740,8 +10034,18 @@
       <c r="D283" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E283" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="F283" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G283" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>603</v>
       </c>
@@ -6754,8 +10058,15 @@
       <c r="D284" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E284" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="F284" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>539</v>
       </c>
@@ -6768,8 +10079,15 @@
       <c r="D285" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E285" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="F285" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>497</v>
       </c>
@@ -6782,8 +10100,15 @@
       <c r="D286" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E286" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="F286" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>249</v>
       </c>
@@ -6796,8 +10121,21 @@
       <c r="D287" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E287" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="F287" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G287" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H287" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>155</v>
       </c>
@@ -6810,8 +10148,15 @@
       <c r="D288" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E288" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F288" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>87</v>
       </c>
@@ -6824,8 +10169,21 @@
       <c r="D289" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E289" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="F289" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G289" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H289" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>509</v>
       </c>
@@ -6838,8 +10196,15 @@
       <c r="D290" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E290" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="F290" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>465</v>
       </c>
@@ -6852,8 +10217,18 @@
       <c r="D291" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E291" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="F291" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G291" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>605</v>
       </c>
@@ -6866,8 +10241,15 @@
       <c r="D292" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E292" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="F292" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>533</v>
       </c>
@@ -6880,8 +10262,15 @@
       <c r="D293" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E293" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="F293" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>434</v>
       </c>
@@ -6894,8 +10283,15 @@
       <c r="D294" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E294" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="F294" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>243</v>
       </c>
@@ -6908,8 +10304,21 @@
       <c r="D295" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E295" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F295" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G295" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H295" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>159</v>
       </c>
@@ -6922,8 +10331,15 @@
       <c r="D296" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E296" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F296" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>81</v>
       </c>
@@ -6936,8 +10352,21 @@
       <c r="D297" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E297" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="F297" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G297" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H297" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>220</v>
       </c>
@@ -6950,8 +10379,18 @@
       <c r="D298" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E298" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F298" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G298" s="17" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>149</v>
       </c>
@@ -6964,8 +10403,18 @@
       <c r="D299" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E299" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F299" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G299" s="17" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>47</v>
       </c>
@@ -6978,8 +10427,18 @@
       <c r="D300" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E300" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F300" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G300" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>49</v>
       </c>
@@ -6992,8 +10451,18 @@
       <c r="D301" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E301" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F301" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G301" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>410</v>
       </c>
@@ -7006,8 +10475,24 @@
       <c r="D302" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E302" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F302" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G302" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="H302" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I302" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>291</v>
       </c>
@@ -7020,8 +10505,24 @@
       <c r="D303" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E303" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F303" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G303" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="H303" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I303" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>216</v>
       </c>
@@ -7034,8 +10535,18 @@
       <c r="D304" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E304" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F304" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G304" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>412</v>
       </c>
@@ -7048,8 +10559,21 @@
       <c r="D305" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E305" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F305" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G305" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="H305" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>51</v>
       </c>
@@ -7062,8 +10586,18 @@
       <c r="D306" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E306" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F306" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G306" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>408</v>
       </c>
@@ -7076,8 +10610,24 @@
       <c r="D307" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E307" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F307" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G307" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="H307" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I307" s="20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>145</v>
       </c>
@@ -7090,8 +10640,18 @@
       <c r="D308" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E308" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F308" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G308" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>416</v>
       </c>
@@ -7104,8 +10664,21 @@
       <c r="D309" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E309" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F309" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G309" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="H309" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>200</v>
       </c>
@@ -7118,8 +10691,21 @@
       <c r="D310" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E310" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F310" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G310" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>126</v>
       </c>
@@ -7132,8 +10718,21 @@
       <c r="D311" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E311" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F311" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G311" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="H311" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>277</v>
       </c>
@@ -7146,8 +10745,24 @@
       <c r="D312" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E312" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F312" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G312" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="H312" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I312" s="20" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>53</v>
       </c>
@@ -7160,8 +10775,18 @@
       <c r="D313" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E313" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F313" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G313" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>330</v>
       </c>
@@ -7174,8 +10799,18 @@
       <c r="D314" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E314" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F314" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G314" s="17" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>322</v>
       </c>
@@ -7188,8 +10823,21 @@
       <c r="D315" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E315" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F315" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G315" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="H315" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>348</v>
       </c>
@@ -7202,8 +10850,18 @@
       <c r="D316" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E316" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F316" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G316" s="17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>340</v>
       </c>
@@ -7216,8 +10874,21 @@
       <c r="D317" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E317" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F317" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G317" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H317" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>361</v>
       </c>
@@ -7230,8 +10901,18 @@
       <c r="D318" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E318" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F318" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G318" s="17" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>353</v>
       </c>
@@ -7244,8 +10925,21 @@
       <c r="D319" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E319" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F319" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G319" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="H319" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>379</v>
       </c>
@@ -7258,8 +10952,18 @@
       <c r="D320" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E320" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F320" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G320" s="17" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>371</v>
       </c>
@@ -7272,8 +10976,21 @@
       <c r="D321" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E321" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F321" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G321" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="H321" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>414</v>
       </c>
@@ -7286,8 +11003,18 @@
       <c r="D322" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E322" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F322" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G322" s="17" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>384</v>
       </c>
@@ -7300,8 +11027,21 @@
       <c r="D323" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E323" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F323" s="23">
+        <f t="shared" ref="F323:F361" si="5">COUNTIF(E:E,E323)</f>
+        <v>62</v>
+      </c>
+      <c r="G323" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="H323" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>418</v>
       </c>
@@ -7314,8 +11054,18 @@
       <c r="D324" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E324" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F324" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G324" s="17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>424</v>
       </c>
@@ -7328,8 +11078,21 @@
       <c r="D325" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E325" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F325" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G325" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H325" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>279</v>
       </c>
@@ -7342,8 +11105,21 @@
       <c r="D326" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E326" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F326" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G326" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H326" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>313</v>
       </c>
@@ -7356,8 +11132,18 @@
       <c r="D327" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E327" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F327" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G327" s="17" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>303</v>
       </c>
@@ -7370,8 +11156,21 @@
       <c r="D328" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E328" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F328" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G328" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H328" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>33</v>
       </c>
@@ -7384,8 +11183,18 @@
       <c r="D329" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E329" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F329" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G329" s="17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>25</v>
       </c>
@@ -7398,8 +11207,21 @@
       <c r="D330" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E330" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F330" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G330" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H330" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>12</v>
       </c>
@@ -7412,8 +11234,18 @@
       <c r="D331" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E331" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F331" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G331" s="17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>4</v>
       </c>
@@ -7426,8 +11258,21 @@
       <c r="D332" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E332" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F332" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G332" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H332" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>675</v>
       </c>
@@ -7440,8 +11285,18 @@
       <c r="D333" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E333" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F333" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G333" s="17" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>667</v>
       </c>
@@ -7454,8 +11309,21 @@
       <c r="D334" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E334" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F334" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G334" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H334" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>621</v>
       </c>
@@ -7468,8 +11336,18 @@
       <c r="D335" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E335" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F335" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G335" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>613</v>
       </c>
@@ -7482,8 +11360,21 @@
       <c r="D336" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E336" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F336" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G336" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="H336" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>67</v>
       </c>
@@ -7496,8 +11387,18 @@
       <c r="D337" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E337" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F337" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G337" s="17" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>59</v>
       </c>
@@ -7510,8 +11411,21 @@
       <c r="D338" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E338" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F338" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G338" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H338" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>689</v>
       </c>
@@ -7524,8 +11438,18 @@
       <c r="D339" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E339" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F339" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G339" s="17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6" t="s">
         <v>681</v>
       </c>
@@ -7538,8 +11462,21 @@
       <c r="D340" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E340" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F340" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G340" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="H340" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>471</v>
       </c>
@@ -7552,8 +11489,18 @@
       <c r="D341" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E341" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F341" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G341" s="17" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>463</v>
       </c>
@@ -7566,8 +11513,21 @@
       <c r="D342" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E342" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F342" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G342" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="H342" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>109</v>
       </c>
@@ -7580,8 +11540,18 @@
       <c r="D343" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E343" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F343" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G343" s="17" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>101</v>
       </c>
@@ -7594,8 +11564,21 @@
       <c r="D344" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E344" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F344" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G344" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H344" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>564</v>
       </c>
@@ -7608,8 +11591,24 @@
       <c r="D345" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E345" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F345" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G345" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H345" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I345" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>585</v>
       </c>
@@ -7622,8 +11621,24 @@
       <c r="D346" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E346" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F346" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G346" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H346" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I346" s="20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>555</v>
       </c>
@@ -7636,8 +11651,24 @@
       <c r="D347" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E347" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F347" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G347" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H347" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I347" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>575</v>
       </c>
@@ -7650,8 +11681,24 @@
       <c r="D348" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E348" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F348" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G348" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H348" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I348" s="20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>644</v>
       </c>
@@ -7664,8 +11711,24 @@
       <c r="D349" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E349" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F349" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G349" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H349" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I349" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>652</v>
       </c>
@@ -7678,8 +11741,24 @@
       <c r="D350" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E350" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F350" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G350" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H350" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I350" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>660</v>
       </c>
@@ -7692,8 +11771,24 @@
       <c r="D351" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E351" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F351" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G351" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H351" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I351" s="20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>73</v>
       </c>
@@ -7706,8 +11801,24 @@
       <c r="D352" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E352" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F352" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G352" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H352" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I352" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>525</v>
       </c>
@@ -7720,8 +11831,24 @@
       <c r="D353" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E353" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F353" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G353" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H353" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I353" s="20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>636</v>
       </c>
@@ -7734,8 +11861,24 @@
       <c r="D354" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E354" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F354" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G354" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H354" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="I354" s="20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>507</v>
       </c>
@@ -7748,8 +11891,18 @@
       <c r="D355" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E355" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F355" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G355" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>165</v>
       </c>
@@ -7762,8 +11915,18 @@
       <c r="D356" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E356" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F356" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G356" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>519</v>
       </c>
@@ -7776,8 +11939,18 @@
       <c r="D357" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E357" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F357" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G357" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>239</v>
       </c>
@@ -7790,8 +11963,18 @@
       <c r="D358" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E358" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F358" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G358" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>438</v>
       </c>
@@ -7804,8 +11987,18 @@
       <c r="D359" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E359" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F359" s="23">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="G359" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>103</v>
       </c>
@@ -7818,8 +12011,18 @@
       <c r="D360" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E360" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="F360" s="23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G360" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
         <v>607</v>
       </c>
@@ -7832,17 +12035,21 @@
       <c r="D361" s="10">
         <v>1</v>
       </c>
+      <c r="E361" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F361" s="23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D361" xr:uid="{88676A4B-8439-4FF1-B4AC-A0095F178336}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:I361" xr:uid="{D9999EE4-683C-4B61-9960-64E81E89612E}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="4"/>
+        <filter val="LD R,A"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D361">
-      <sortCondition ref="C1:C361"/>
-    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D362">
     <sortCondition ref="C1"/>
